--- a/docs/shopping_list.xlsx
+++ b/docs/shopping_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\PoF_2015\Setups\211123_TWT_jet_grid\Electronics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\_GitHub_repo\project-TWT-jetting-grid\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{263FF32B-1F02-4904-89AC-462100B8EFE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D89E6A-62D8-44FB-BA70-E75143C62272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="26325" windowHeight="16395" xr2:uid="{6ACBF970-17D1-4E70-A647-E338031FE07A}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="26318" windowHeight="16395" xr2:uid="{6ACBF970-17D1-4E70-A647-E338031FE07A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="165">
   <si>
     <t>https://www.omega.nl/pptst/PXM309.html</t>
   </si>
@@ -289,18 +289,6 @@
     <t>Phoenix 1424137</t>
   </si>
   <si>
-    <t>Phoenix 1440151</t>
-  </si>
-  <si>
-    <t>https://nl.farnell.com/phoenix-contact/sacc-m12-kd-nut-sh/emc-hexagonal-nut-m12/dp/3286565</t>
-  </si>
-  <si>
-    <t>LED matrix: Shielded cable</t>
-  </si>
-  <si>
-    <t>LED matrix: Panel mount</t>
-  </si>
-  <si>
     <t>LED matrix: Panel mount EMC nut</t>
   </si>
   <si>
@@ -445,9 +433,6 @@
     <t>https://nl.farnell.com/multicomp/2227mc-14-03-10-f1/socket-ic-dil-0-3-14way/dp/1103845</t>
   </si>
   <si>
-    <t>ordered 2</t>
-  </si>
-  <si>
     <t>41/56</t>
   </si>
   <si>
@@ -524,6 +509,39 @@
   </si>
   <si>
     <t>32/56</t>
+  </si>
+  <si>
+    <t>Phoenix 1440164</t>
+  </si>
+  <si>
+    <t>https://nl.farnell.com/phoenix-contact/1440164/emc-nut-size-m16-m12-connector/dp/2545245</t>
+  </si>
+  <si>
+    <t>Phoenix 1404642</t>
+  </si>
+  <si>
+    <t>https://nl.farnell.com/phoenix-contact/sacc-m12fss-3pecon-pg11-m/sensor-actuator-socket-m12-4pos/dp/2449313</t>
+  </si>
+  <si>
+    <t>LED matrix: Cable connector, socket</t>
+  </si>
+  <si>
+    <t>LED matrix: Panel mount, socket</t>
+  </si>
+  <si>
+    <t>LED matrix: Panel mount, plug</t>
+  </si>
+  <si>
+    <t>LED matrix: Shielded cable, plug</t>
+  </si>
+  <si>
+    <t>Phoenix 1424139</t>
+  </si>
+  <si>
+    <t>https://nl.farnell.com/phoenix-contact/sacc-e-m12mss-4con-m16-0-5-pe/sensor-lead-m12-plug-4pos/dp/2449272</t>
+  </si>
+  <si>
+    <t>ordered 4</t>
   </si>
 </sst>
 </file>
@@ -978,10 +996,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EABDC01-B8C9-4DFC-A32F-D1F25B52CF32}">
-  <dimension ref="A1:I53"/>
+  <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B18" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1304,7 +1322,7 @@
         <v>40</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D14" s="19" t="s">
         <v>58</v>
@@ -1358,16 +1376,16 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>40</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E17" s="14">
         <v>25.61</v>
@@ -1380,7 +1398,7 @@
         <v>25.61</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.45">
@@ -1388,10 +1406,10 @@
         <v>40</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E18" s="14">
         <v>21</v>
@@ -1404,23 +1422,23 @@
         <v>42</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19" s="7"/>
       <c r="B19" s="12"/>
       <c r="C19" s="25" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E19" s="14"/>
       <c r="F19" s="13"/>
       <c r="G19" s="14"/>
       <c r="H19" s="4" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.45">
@@ -1428,10 +1446,10 @@
         <v>40</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E20" s="14">
         <v>0.82</v>
@@ -1444,7 +1462,7 @@
         <v>16.399999999999999</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.45">
@@ -1452,10 +1470,10 @@
         <v>40</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E21" s="14">
         <v>0.12</v>
@@ -1468,7 +1486,7 @@
         <v>3.5999999999999996</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.45">
@@ -1477,10 +1495,10 @@
         <v>40</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E22" s="14">
         <v>0.22</v>
@@ -1493,7 +1511,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.45">
@@ -1523,7 +1541,7 @@
         <v>8</v>
       </c>
       <c r="G25" s="14">
-        <f t="shared" ref="G25:G52" si="3">E25*F25</f>
+        <f t="shared" ref="G25:G54" si="3">E25*F25</f>
         <v>112</v>
       </c>
       <c r="H25" s="4" t="s">
@@ -1556,7 +1574,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B27" s="15" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C27" s="9" t="s">
         <v>17</v>
@@ -1580,7 +1598,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B28" s="8" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>19</v>
@@ -1657,10 +1675,10 @@
         <v>40</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E31" s="14">
         <v>2.34</v>
@@ -1673,7 +1691,7 @@
         <v>23.4</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.45">
@@ -1701,22 +1719,22 @@
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B33" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="D33" s="11" t="s">
+      <c r="B33" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="D33" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="E33" s="10">
+      <c r="E33" s="14">
         <v>82.12</v>
       </c>
-      <c r="F33" s="9">
-        <v>1</v>
-      </c>
-      <c r="G33" s="10">
+      <c r="F33" s="13">
+        <v>1</v>
+      </c>
+      <c r="G33" s="14">
         <f t="shared" si="3"/>
         <v>82.12</v>
       </c>
@@ -1725,22 +1743,22 @@
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B34" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="D34" s="11" t="s">
+      <c r="B34" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="D34" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="E34" s="10">
+      <c r="E34" s="14">
         <v>16.25</v>
       </c>
-      <c r="F34" s="9">
-        <v>1</v>
-      </c>
-      <c r="G34" s="10">
+      <c r="F34" s="13">
+        <v>1</v>
+      </c>
+      <c r="G34" s="14">
         <f t="shared" si="3"/>
         <v>16.25</v>
       </c>
@@ -1749,75 +1767,75 @@
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B35" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C35" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="D35" s="18" t="s">
+      <c r="B35" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="C35" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="E35" s="14">
+      <c r="D35" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E35" s="10">
+        <v>1.27</v>
+      </c>
+      <c r="F35" s="9">
         <v>2</v>
       </c>
-      <c r="F35" s="13">
-        <v>1</v>
-      </c>
-      <c r="G35" s="14">
-        <f t="shared" si="3"/>
-        <v>2</v>
+      <c r="G35" s="10">
+        <f t="shared" si="3"/>
+        <v>2.54</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>81</v>
+        <v>155</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B36" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="D36" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="E36" s="14">
-        <v>2.59</v>
-      </c>
-      <c r="F36" s="13">
-        <v>10</v>
-      </c>
-      <c r="G36" s="14">
-        <f t="shared" si="3"/>
-        <v>25.9</v>
+      <c r="B36" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="E36" s="10">
+        <v>20.63</v>
+      </c>
+      <c r="F36" s="9">
+        <v>1</v>
+      </c>
+      <c r="G36" s="10">
+        <f t="shared" si="3"/>
+        <v>20.63</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>100</v>
+        <v>157</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B37" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C37" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="D37" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="E37" s="14">
-        <v>2.6</v>
-      </c>
-      <c r="F37" s="13">
-        <v>10</v>
-      </c>
-      <c r="G37" s="14">
-        <f t="shared" si="3"/>
-        <v>26</v>
+      <c r="B37" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="E37" s="10">
+        <v>16.7</v>
+      </c>
+      <c r="F37" s="9">
+        <v>1</v>
+      </c>
+      <c r="G37" s="10">
+        <f t="shared" si="3"/>
+        <v>16.7</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>103</v>
+        <v>163</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.45">
@@ -1825,23 +1843,23 @@
         <v>40</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="E38" s="14">
-        <v>2.6</v>
+        <v>2.59</v>
       </c>
       <c r="F38" s="13">
         <v>10</v>
       </c>
       <c r="G38" s="14">
         <f t="shared" si="3"/>
-        <v>26</v>
+        <v>25.9</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.45">
@@ -1849,23 +1867,23 @@
         <v>40</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="E39" s="14">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="F39" s="13">
         <v>10</v>
       </c>
       <c r="G39" s="14">
         <f t="shared" si="3"/>
-        <v>27.5</v>
+        <v>26</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.45">
@@ -1873,23 +1891,23 @@
         <v>40</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D40" s="18" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="E40" s="14">
-        <v>0.38</v>
+        <v>2.6</v>
       </c>
       <c r="F40" s="13">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G40" s="14">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.45">
@@ -1897,23 +1915,23 @@
         <v>40</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>139</v>
+        <v>102</v>
       </c>
       <c r="E41" s="14">
-        <v>7.62</v>
+        <v>2.75</v>
       </c>
       <c r="F41" s="13">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G41" s="14">
         <f t="shared" si="3"/>
-        <v>7.62</v>
+        <v>27.5</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>144</v>
+        <v>103</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.45">
@@ -1921,23 +1939,23 @@
         <v>40</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="D42" s="18" t="s">
-        <v>140</v>
+        <v>109</v>
       </c>
       <c r="E42" s="14">
-        <v>9.07</v>
+        <v>0.38</v>
       </c>
       <c r="F42" s="13">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="G42" s="14">
         <f t="shared" si="3"/>
-        <v>9.07</v>
+        <v>19</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.45">
@@ -1945,23 +1963,23 @@
         <v>40</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D43" s="18" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="E43" s="14">
-        <v>9.25</v>
+        <v>7.62</v>
       </c>
       <c r="F43" s="13">
         <v>1</v>
       </c>
       <c r="G43" s="14">
         <f t="shared" si="3"/>
-        <v>9.25</v>
+        <v>7.62</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.45">
@@ -1969,23 +1987,23 @@
         <v>40</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D44" s="18" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="E44" s="14">
-        <v>14.17</v>
+        <v>9.07</v>
       </c>
       <c r="F44" s="13">
         <v>1</v>
       </c>
       <c r="G44" s="14">
         <f t="shared" si="3"/>
-        <v>14.17</v>
+        <v>9.07</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.45">
@@ -1993,23 +2011,23 @@
         <v>40</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="D45" s="18" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="E45" s="14">
-        <v>8.51</v>
+        <v>9.25</v>
       </c>
       <c r="F45" s="13">
         <v>1</v>
       </c>
       <c r="G45" s="14">
         <f t="shared" si="3"/>
-        <v>8.51</v>
+        <v>9.25</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.45">
@@ -2017,23 +2035,23 @@
         <v>40</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="D46" s="18" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="E46" s="14">
-        <v>6.41</v>
+        <v>14.17</v>
       </c>
       <c r="F46" s="13">
         <v>1</v>
       </c>
       <c r="G46" s="14">
         <f t="shared" si="3"/>
-        <v>6.41</v>
+        <v>14.17</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.45">
@@ -2041,23 +2059,23 @@
         <v>40</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="D47" s="18" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="E47" s="14">
-        <v>15.47</v>
+        <v>8.51</v>
       </c>
       <c r="F47" s="13">
         <v>1</v>
       </c>
       <c r="G47" s="14">
         <f t="shared" si="3"/>
-        <v>15.47</v>
+        <v>8.51</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.45">
@@ -2065,110 +2083,158 @@
         <v>40</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="D48" s="18" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="E48" s="14">
+        <v>6.41</v>
+      </c>
+      <c r="F48" s="13">
+        <v>1</v>
+      </c>
+      <c r="G48" s="14">
+        <f t="shared" si="3"/>
+        <v>6.41</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B49" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="D49" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="E49" s="14">
+        <v>15.47</v>
+      </c>
+      <c r="F49" s="13">
+        <v>1</v>
+      </c>
+      <c r="G49" s="14">
+        <f t="shared" si="3"/>
+        <v>15.47</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B50" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="D50" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="E50" s="14">
         <v>28.96</v>
       </c>
-      <c r="F48" s="13">
-        <v>1</v>
-      </c>
-      <c r="G48" s="14">
+      <c r="F50" s="13">
+        <v>1</v>
+      </c>
+      <c r="G50" s="14">
         <f t="shared" si="3"/>
         <v>28.96</v>
       </c>
-      <c r="H48" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B49" s="21"/>
-      <c r="C49" s="20"/>
-      <c r="D49" s="26"/>
-      <c r="E49" s="22"/>
-      <c r="F49" s="20"/>
-      <c r="G49" s="22"/>
-      <c r="H49" s="4"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="H50" s="4"/>
+      <c r="H50" s="4" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A51" s="7" t="s">
+      <c r="B51" s="21"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="26"/>
+      <c r="E51" s="22"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="22"/>
+      <c r="H51" s="4"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="H52" s="4"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A53" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B51" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C51" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="D51" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="E51" s="14">
+      <c r="B53" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D53" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E53" s="14">
         <v>318.16000000000003</v>
       </c>
-      <c r="F51" s="13">
-        <v>1</v>
-      </c>
-      <c r="G51" s="14">
-        <f>E51*F51</f>
-        <v>318.16000000000003</v>
-      </c>
-      <c r="H51" s="23" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B52" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C52" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="D52" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="E52" s="14">
-        <v>28.5</v>
-      </c>
-      <c r="F52" s="13">
-        <v>1</v>
-      </c>
-      <c r="G52" s="14">
-        <f t="shared" si="3"/>
-        <v>28.5</v>
-      </c>
-      <c r="H52" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B53" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C53" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="D53" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="E53" s="14">
-        <v>9.83</v>
-      </c>
       <c r="F53" s="13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G53" s="14">
         <f>E53*F53</f>
+        <v>318.16000000000003</v>
+      </c>
+      <c r="H53" s="23" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B54" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D54" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E54" s="14">
+        <v>28.5</v>
+      </c>
+      <c r="F54" s="13">
+        <v>1</v>
+      </c>
+      <c r="G54" s="14">
+        <f t="shared" si="3"/>
+        <v>28.5</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B55" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="D55" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="E55" s="14">
+        <v>9.83</v>
+      </c>
+      <c r="F55" s="13">
+        <v>3</v>
+      </c>
+      <c r="G55" s="14">
+        <f>E55*F55</f>
         <v>29.490000000000002</v>
       </c>
-      <c r="H53" s="4" t="s">
-        <v>85</v>
+      <c r="H55" s="4" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -2191,8 +2257,8 @@
     <hyperlink ref="H15" r:id="rId15" xr:uid="{9CE1B218-A51B-4D74-8E60-BC48A6732159}"/>
     <hyperlink ref="H29" r:id="rId16" xr:uid="{21139B33-0F0B-40A6-A529-31ED4FA41410}"/>
     <hyperlink ref="H33" r:id="rId17" xr:uid="{2FB12F3E-2615-4CE9-857F-9A7A5B1D9736}"/>
-    <hyperlink ref="H53" r:id="rId18" xr:uid="{F2F7E969-5D11-4304-BC12-98AF6A6F8DB8}"/>
-    <hyperlink ref="H52" r:id="rId19" xr:uid="{BC166A5C-E799-4B24-8CD9-D0CFD834F7A9}"/>
+    <hyperlink ref="H55" r:id="rId18" xr:uid="{F2F7E969-5D11-4304-BC12-98AF6A6F8DB8}"/>
+    <hyperlink ref="H54" r:id="rId19" xr:uid="{BC166A5C-E799-4B24-8CD9-D0CFD834F7A9}"/>
     <hyperlink ref="H31" r:id="rId20" xr:uid="{CA7C0345-0A84-4520-B968-21F94DB74B6F}"/>
     <hyperlink ref="H32" r:id="rId21" xr:uid="{98E0B643-0B27-4820-9B32-2ED486935FC0}"/>
     <hyperlink ref="H17" r:id="rId22" xr:uid="{BCE8848E-1B0B-40B8-A1F5-1B128E2593DD}"/>
@@ -2201,14 +2267,15 @@
     <hyperlink ref="H19" r:id="rId25" xr:uid="{ED7DC865-0754-4677-BBE5-BF4AF851177F}"/>
     <hyperlink ref="H22" r:id="rId26" xr:uid="{84A0CCC1-A592-4931-A941-E5326C8FC464}"/>
     <hyperlink ref="H14" r:id="rId27" xr:uid="{E15EEAD3-0BA4-4EAA-B8F8-731BE217E79B}"/>
-    <hyperlink ref="H42" r:id="rId28" xr:uid="{E27B3782-52AC-4DD1-9C40-C9CAE2CD205F}"/>
-    <hyperlink ref="H43" r:id="rId29" xr:uid="{FA68116D-962D-438B-964C-3508A341D914}"/>
-    <hyperlink ref="H44" r:id="rId30" xr:uid="{04802529-4914-4832-9CA2-2D2BD0F76FD6}"/>
-    <hyperlink ref="H45" r:id="rId31" xr:uid="{D97DA7B3-DB8B-4A29-922C-1947EA3D1DA0}"/>
+    <hyperlink ref="H44" r:id="rId28" xr:uid="{E27B3782-52AC-4DD1-9C40-C9CAE2CD205F}"/>
+    <hyperlink ref="H45" r:id="rId29" xr:uid="{FA68116D-962D-438B-964C-3508A341D914}"/>
+    <hyperlink ref="H46" r:id="rId30" xr:uid="{04802529-4914-4832-9CA2-2D2BD0F76FD6}"/>
+    <hyperlink ref="H47" r:id="rId31" xr:uid="{D97DA7B3-DB8B-4A29-922C-1947EA3D1DA0}"/>
     <hyperlink ref="H34" r:id="rId32" xr:uid="{578C99D7-4447-40EF-8C65-759B18DC19FC}"/>
-    <hyperlink ref="H46" r:id="rId33" xr:uid="{68C87FBD-315D-4D2B-BA53-B60E11432DC6}"/>
+    <hyperlink ref="H48" r:id="rId33" xr:uid="{68C87FBD-315D-4D2B-BA53-B60E11432DC6}"/>
+    <hyperlink ref="H35" r:id="rId34" xr:uid="{F2D2CBB0-73A5-4D87-8FF0-E76A17D41BDD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId34"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId35"/>
 </worksheet>
 </file>
--- a/docs/shopping_list.xlsx
+++ b/docs/shopping_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\_GitHub_repo\project-TWT-jetting-grid\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D89E6A-62D8-44FB-BA70-E75143C62272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75CAFBC2-57CB-41D8-ADEC-B240B4EF1176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="26318" windowHeight="16395" xr2:uid="{6ACBF970-17D1-4E70-A647-E338031FE07A}"/>
+    <workbookView xWindow="2205" yWindow="2205" windowWidth="19598" windowHeight="11873" xr2:uid="{6ACBF970-17D1-4E70-A647-E338031FE07A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="164">
   <si>
     <t>https://www.omega.nl/pptst/PXM309.html</t>
   </si>
@@ -506,9 +506,6 @@
   </si>
   <si>
     <t>USB cable, IP65</t>
-  </si>
-  <si>
-    <t>32/56</t>
   </si>
   <si>
     <t>Phoenix 1440164</t>
@@ -998,8 +995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EABDC01-B8C9-4DFC-A32F-D1F25B52CF32}">
   <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1597,22 +1594,22 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B28" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="C28" s="9" t="s">
+      <c r="B28" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="D28" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E28" s="10">
+      <c r="E28" s="14">
         <v>10.7</v>
       </c>
-      <c r="F28" s="9">
+      <c r="F28" s="13">
         <v>56</v>
       </c>
-      <c r="G28" s="10">
+      <c r="G28" s="14">
         <f t="shared" si="3"/>
         <v>599.19999999999993</v>
       </c>
@@ -1723,7 +1720,7 @@
         <v>40</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D33" s="18" t="s">
         <v>76</v>
@@ -1747,7 +1744,7 @@
         <v>40</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D34" s="18" t="s">
         <v>79</v>
@@ -1767,38 +1764,38 @@
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B35" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="C35" s="9" t="s">
+      <c r="B35" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="D35" s="11" t="s">
+      <c r="D35" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="E35" s="14">
+        <v>1.27</v>
+      </c>
+      <c r="F35" s="13">
+        <v>2</v>
+      </c>
+      <c r="G35" s="14">
+        <f t="shared" si="3"/>
+        <v>2.54</v>
+      </c>
+      <c r="H35" s="4" t="s">
         <v>154</v>
-      </c>
-      <c r="E35" s="10">
-        <v>1.27</v>
-      </c>
-      <c r="F35" s="9">
-        <v>2</v>
-      </c>
-      <c r="G35" s="10">
-        <f t="shared" si="3"/>
-        <v>2.54</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B36" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E36" s="10">
         <v>20.63</v>
@@ -1811,18 +1808,18 @@
         <v>20.63</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B37" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E37" s="10">
         <v>16.7</v>
@@ -1835,7 +1832,7 @@
         <v>16.7</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.45">

--- a/docs/shopping_list.xlsx
+++ b/docs/shopping_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\_GitHub_repo\project-TWT-jetting-grid\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75CAFBC2-57CB-41D8-ADEC-B240B4EF1176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D7B0367-6543-422A-B12F-68573AAC5239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="2205" windowWidth="19598" windowHeight="11873" xr2:uid="{6ACBF970-17D1-4E70-A647-E338031FE07A}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="26318" windowHeight="16395" xr2:uid="{6ACBF970-17D1-4E70-A647-E338031FE07A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="163">
   <si>
     <t>https://www.omega.nl/pptst/PXM309.html</t>
   </si>
@@ -433,9 +433,6 @@
     <t>https://nl.farnell.com/multicomp/2227mc-14-03-10-f1/socket-ic-dil-0-3-14way/dp/1103845</t>
   </si>
   <si>
-    <t>41/56</t>
-  </si>
-  <si>
     <t>Harting 230V, body</t>
   </si>
   <si>
@@ -538,7 +535,7 @@
     <t>https://nl.farnell.com/phoenix-contact/sacc-e-m12mss-4con-m16-0-5-pe/sensor-lead-m12-plug-4pos/dp/2449272</t>
   </si>
   <si>
-    <t>ordered 4</t>
+    <t>ordered</t>
   </si>
 </sst>
 </file>
@@ -652,9 +649,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="16" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -677,6 +671,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -995,8 +992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EABDC01-B8C9-4DFC-A32F-D1F25B52CF32}">
   <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1013,7 +1010,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A1" s="24">
+      <c r="A1" s="23">
         <v>30912301</v>
       </c>
     </row>
@@ -1162,7 +1159,7 @@
       <c r="C8" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="17" t="s">
         <v>73</v>
       </c>
       <c r="E8" s="14">
@@ -1189,7 +1186,7 @@
       <c r="C9" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="17" t="s">
         <v>8</v>
       </c>
       <c r="E9" s="14">
@@ -1267,7 +1264,7 @@
       <c r="C12" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="16" t="s">
         <v>64</v>
       </c>
       <c r="E12" s="14">
@@ -1321,7 +1318,7 @@
       <c r="C14" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="18" t="s">
         <v>58</v>
       </c>
       <c r="E14" s="14">
@@ -1345,7 +1342,7 @@
       <c r="C15" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="18" t="s">
         <v>53</v>
       </c>
       <c r="E15" s="14">
@@ -1363,12 +1360,12 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B16" s="21"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="22"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="21"/>
       <c r="H16" s="4"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.45">
@@ -1425,7 +1422,7 @@
     <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19" s="7"/>
       <c r="B19" s="12"/>
-      <c r="C19" s="25" t="s">
+      <c r="C19" s="24" t="s">
         <v>124</v>
       </c>
       <c r="D19" s="13" t="s">
@@ -1513,7 +1510,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A23" s="7"/>
-      <c r="C23" s="20"/>
+      <c r="C23" s="19"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.45">
       <c r="H24" s="4"/>
@@ -1525,7 +1522,7 @@
       <c r="B25" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="17" t="s">
         <v>14</v>
       </c>
       <c r="D25" s="13" t="s">
@@ -1546,7 +1543,7 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="15" t="s">
         <v>40</v>
       </c>
       <c r="C26" s="13" t="s">
@@ -1570,22 +1567,22 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B27" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="C27" s="9" t="s">
+      <c r="B27" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E27" s="10">
+      <c r="E27" s="14">
         <v>7.4</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F27" s="13">
         <v>56</v>
       </c>
-      <c r="G27" s="10">
+      <c r="G27" s="14">
         <f t="shared" si="3"/>
         <v>414.40000000000003</v>
       </c>
@@ -1650,7 +1647,7 @@
       <c r="C30" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="D30" s="18" t="s">
+      <c r="D30" s="17" t="s">
         <v>56</v>
       </c>
       <c r="E30" s="14">
@@ -1674,7 +1671,7 @@
       <c r="C31" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="D31" s="18" t="s">
+      <c r="D31" s="17" t="s">
         <v>88</v>
       </c>
       <c r="E31" s="14">
@@ -1698,7 +1695,7 @@
       <c r="C32" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="D32" s="18" t="s">
+      <c r="D32" s="17" t="s">
         <v>49</v>
       </c>
       <c r="E32" s="14">
@@ -1720,9 +1717,9 @@
         <v>40</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="D33" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="D33" s="17" t="s">
         <v>76</v>
       </c>
       <c r="E33" s="14">
@@ -1744,9 +1741,9 @@
         <v>40</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="D34" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="D34" s="17" t="s">
         <v>79</v>
       </c>
       <c r="E34" s="14">
@@ -1770,8 +1767,8 @@
       <c r="C35" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="D35" s="18" t="s">
-        <v>153</v>
+      <c r="D35" s="17" t="s">
+        <v>152</v>
       </c>
       <c r="E35" s="14">
         <v>1.27</v>
@@ -1784,18 +1781,18 @@
         <v>2.54</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B36" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E36" s="10">
         <v>20.63</v>
@@ -1808,18 +1805,18 @@
         <v>20.63</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B37" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E37" s="10">
         <v>16.7</v>
@@ -1832,7 +1829,7 @@
         <v>16.7</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.45">
@@ -1842,7 +1839,7 @@
       <c r="C38" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="D38" s="18" t="s">
+      <c r="D38" s="17" t="s">
         <v>97</v>
       </c>
       <c r="E38" s="14">
@@ -1866,7 +1863,7 @@
       <c r="C39" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="D39" s="18" t="s">
+      <c r="D39" s="17" t="s">
         <v>98</v>
       </c>
       <c r="E39" s="14">
@@ -1890,7 +1887,7 @@
       <c r="C40" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="D40" s="18" t="s">
+      <c r="D40" s="17" t="s">
         <v>100</v>
       </c>
       <c r="E40" s="14">
@@ -1914,7 +1911,7 @@
       <c r="C41" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="D41" s="18" t="s">
+      <c r="D41" s="17" t="s">
         <v>102</v>
       </c>
       <c r="E41" s="14">
@@ -1938,7 +1935,7 @@
       <c r="C42" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="D42" s="18" t="s">
+      <c r="D42" s="17" t="s">
         <v>109</v>
       </c>
       <c r="E42" s="14">
@@ -1960,10 +1957,10 @@
         <v>40</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="D43" s="18" t="s">
-        <v>134</v>
+        <v>128</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>133</v>
       </c>
       <c r="E43" s="14">
         <v>7.62</v>
@@ -1976,7 +1973,7 @@
         <v>7.62</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.45">
@@ -1984,10 +1981,10 @@
         <v>40</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="D44" s="18" t="s">
-        <v>135</v>
+        <v>129</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>134</v>
       </c>
       <c r="E44" s="14">
         <v>9.07</v>
@@ -2000,7 +1997,7 @@
         <v>9.07</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.45">
@@ -2008,10 +2005,10 @@
         <v>40</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="D45" s="18" t="s">
-        <v>136</v>
+        <v>130</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>135</v>
       </c>
       <c r="E45" s="14">
         <v>9.25</v>
@@ -2024,7 +2021,7 @@
         <v>9.25</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.45">
@@ -2032,10 +2029,10 @@
         <v>40</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="D46" s="18" t="s">
-        <v>137</v>
+        <v>131</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>136</v>
       </c>
       <c r="E46" s="14">
         <v>14.17</v>
@@ -2048,7 +2045,7 @@
         <v>14.17</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.45">
@@ -2056,10 +2053,10 @@
         <v>40</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="D47" s="18" t="s">
-        <v>138</v>
+        <v>132</v>
+      </c>
+      <c r="D47" s="17" t="s">
+        <v>137</v>
       </c>
       <c r="E47" s="14">
         <v>8.51</v>
@@ -2072,7 +2069,7 @@
         <v>8.51</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.45">
@@ -2080,10 +2077,10 @@
         <v>40</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="D48" s="18" t="s">
-        <v>144</v>
+        <v>149</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>143</v>
       </c>
       <c r="E48" s="14">
         <v>6.41</v>
@@ -2096,7 +2093,7 @@
         <v>6.41</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.45">
@@ -2104,10 +2101,10 @@
         <v>40</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="D49" s="18" t="s">
-        <v>146</v>
+        <v>150</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>145</v>
       </c>
       <c r="E49" s="14">
         <v>15.47</v>
@@ -2120,7 +2117,7 @@
         <v>15.47</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.45">
@@ -2128,10 +2125,10 @@
         <v>40</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="D50" s="18" t="s">
-        <v>149</v>
+        <v>151</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>148</v>
       </c>
       <c r="E50" s="14">
         <v>28.96</v>
@@ -2144,16 +2141,16 @@
         <v>28.96</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B51" s="21"/>
-      <c r="C51" s="20"/>
-      <c r="D51" s="26"/>
-      <c r="E51" s="22"/>
-      <c r="F51" s="20"/>
-      <c r="G51" s="22"/>
+      <c r="B51" s="20"/>
+      <c r="C51" s="19"/>
+      <c r="D51" s="25"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="19"/>
+      <c r="G51" s="21"/>
       <c r="H51" s="4"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.45">
@@ -2169,7 +2166,7 @@
       <c r="C53" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="D53" s="18" t="s">
+      <c r="D53" s="17" t="s">
         <v>94</v>
       </c>
       <c r="E53" s="14">
@@ -2182,7 +2179,7 @@
         <f>E53*F53</f>
         <v>318.16000000000003</v>
       </c>
-      <c r="H53" s="23" t="s">
+      <c r="H53" s="22" t="s">
         <v>95</v>
       </c>
     </row>
@@ -2217,7 +2214,7 @@
       <c r="C55" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="D55" s="18" t="s">
+      <c r="D55" s="17" t="s">
         <v>82</v>
       </c>
       <c r="E55" s="14">

--- a/docs/shopping_list.xlsx
+++ b/docs/shopping_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\_GitHub_repo\project-TWT-jetting-grid\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D7B0367-6543-422A-B12F-68573AAC5239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D898CAAF-FCE8-40EA-AF1A-CAC9DD4E3A6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="26318" windowHeight="16395" xr2:uid="{6ACBF970-17D1-4E70-A647-E338031FE07A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="166">
   <si>
     <t>https://www.omega.nl/pptst/PXM309.html</t>
   </si>
@@ -536,6 +536,15 @@
   </si>
   <si>
     <t>ordered</t>
+  </si>
+  <si>
+    <t>Arduino `charge pump`: relay</t>
+  </si>
+  <si>
+    <t>Adafruit #2895</t>
+  </si>
+  <si>
+    <t>https://www.vanallesenmeer.nl/Non-Latching-Mini-Relay-FeatherWing-Adafruit-2895</t>
   </si>
 </sst>
 </file>
@@ -990,10 +999,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EABDC01-B8C9-4DFC-A32F-D1F25B52CF32}">
-  <dimension ref="A1:I55"/>
+  <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1511,133 +1520,110 @@
     <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A23" s="7"/>
       <c r="C23" s="19"/>
+      <c r="G23" s="21"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="H24" s="4"/>
+      <c r="A24" s="7"/>
+      <c r="C24" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="E24" s="10">
+        <v>10.45</v>
+      </c>
+      <c r="F24" s="9">
+        <v>1</v>
+      </c>
+      <c r="G24" s="10">
+        <f t="shared" ref="G23:G24" si="3">E24*F24</f>
+        <v>10.45</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="7"/>
+      <c r="C25" s="19"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="H26" s="4"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A27" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" s="17" t="s">
+      <c r="B27" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D27" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E25" s="14">
+      <c r="E27" s="14">
         <v>14</v>
       </c>
-      <c r="F25" s="13">
+      <c r="F27" s="13">
         <v>8</v>
       </c>
-      <c r="G25" s="14">
-        <f t="shared" ref="G25:G54" si="3">E25*F25</f>
+      <c r="G27" s="14">
+        <f t="shared" ref="G27:G56" si="4">E27*F27</f>
         <v>112</v>
       </c>
-      <c r="H25" s="4" t="s">
+      <c r="H27" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B26" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="13" t="s">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B28" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D28" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E26" s="14">
+      <c r="E28" s="14">
         <v>35</v>
       </c>
-      <c r="F26" s="13">
+      <c r="F28" s="13">
         <v>8</v>
       </c>
-      <c r="G26" s="14">
-        <f t="shared" si="3"/>
+      <c r="G28" s="14">
+        <f t="shared" si="4"/>
         <v>280</v>
       </c>
-      <c r="H26" s="4" t="s">
+      <c r="H28" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B27" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="C27" s="13" t="s">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B29" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D29" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E27" s="14">
+      <c r="E29" s="14">
         <v>7.4</v>
       </c>
-      <c r="F27" s="13">
+      <c r="F29" s="13">
         <v>56</v>
       </c>
-      <c r="G27" s="14">
-        <f t="shared" si="3"/>
+      <c r="G29" s="14">
+        <f t="shared" si="4"/>
         <v>414.40000000000003</v>
       </c>
-      <c r="H27" s="4" t="s">
+      <c r="H29" s="4" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B28" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E28" s="14">
-        <v>10.7</v>
-      </c>
-      <c r="F28" s="13">
-        <v>56</v>
-      </c>
-      <c r="G28" s="14">
-        <f t="shared" si="3"/>
-        <v>599.19999999999993</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B29" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E29" s="14">
-        <v>243.8</v>
-      </c>
-      <c r="F29" s="13">
-        <v>1</v>
-      </c>
-      <c r="G29" s="14">
-        <v>243.8</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="I29" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.45">
@@ -1645,23 +1631,23 @@
         <v>40</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D30" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" s="14">
+        <v>10.7</v>
+      </c>
+      <c r="F30" s="13">
         <v>56</v>
       </c>
-      <c r="E30" s="14">
-        <v>15</v>
-      </c>
-      <c r="F30" s="13">
-        <v>1</v>
-      </c>
       <c r="G30" s="14">
-        <f>E30*F30</f>
-        <v>15</v>
+        <f t="shared" si="4"/>
+        <v>599.19999999999993</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.45">
@@ -1669,23 +1655,25 @@
         <v>40</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="D31" s="17" t="s">
-        <v>88</v>
+        <v>75</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="E31" s="14">
-        <v>2.34</v>
+        <v>243.8</v>
       </c>
       <c r="F31" s="13">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G31" s="14">
-        <f t="shared" si="3"/>
-        <v>23.4</v>
+        <v>243.8</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>89</v>
+        <v>74</v>
+      </c>
+      <c r="I31" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.45">
@@ -1693,23 +1681,23 @@
         <v>40</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="E32" s="14">
-        <v>49.14</v>
+        <v>15</v>
       </c>
       <c r="F32" s="13">
         <v>1</v>
       </c>
       <c r="G32" s="14">
-        <f t="shared" si="3"/>
-        <v>49.14</v>
+        <f>E32*F32</f>
+        <v>15</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.45">
@@ -1717,23 +1705,23 @@
         <v>40</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>159</v>
+        <v>87</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="E33" s="14">
-        <v>82.12</v>
+        <v>2.34</v>
       </c>
       <c r="F33" s="13">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G33" s="14">
-        <f t="shared" si="3"/>
-        <v>82.12</v>
+        <f t="shared" si="4"/>
+        <v>23.4</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.45">
@@ -1741,23 +1729,23 @@
         <v>40</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>157</v>
+        <v>48</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="E34" s="14">
-        <v>16.25</v>
+        <v>49.14</v>
       </c>
       <c r="F34" s="13">
         <v>1</v>
       </c>
       <c r="G34" s="14">
-        <f t="shared" si="3"/>
-        <v>16.25</v>
+        <f t="shared" si="4"/>
+        <v>49.14</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.45">
@@ -1765,119 +1753,119 @@
         <v>40</v>
       </c>
       <c r="C35" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E35" s="14">
+        <v>82.12</v>
+      </c>
+      <c r="F35" s="13">
+        <v>1</v>
+      </c>
+      <c r="G35" s="14">
+        <f t="shared" si="4"/>
+        <v>82.12</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B36" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="E36" s="14">
+        <v>16.25</v>
+      </c>
+      <c r="F36" s="13">
+        <v>1</v>
+      </c>
+      <c r="G36" s="14">
+        <f t="shared" si="4"/>
+        <v>16.25</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B37" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="D35" s="17" t="s">
+      <c r="D37" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="E35" s="14">
+      <c r="E37" s="14">
         <v>1.27</v>
       </c>
-      <c r="F35" s="13">
+      <c r="F37" s="13">
         <v>2</v>
       </c>
-      <c r="G35" s="14">
-        <f t="shared" si="3"/>
+      <c r="G37" s="14">
+        <f t="shared" si="4"/>
         <v>2.54</v>
       </c>
-      <c r="H35" s="4" t="s">
+      <c r="H37" s="4" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B36" s="8" t="s">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B38" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C38" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="D36" s="11" t="s">
+      <c r="D38" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="E36" s="10">
+      <c r="E38" s="10">
         <v>20.63</v>
       </c>
-      <c r="F36" s="9">
-        <v>1</v>
-      </c>
-      <c r="G36" s="10">
-        <f t="shared" si="3"/>
+      <c r="F38" s="9">
+        <v>1</v>
+      </c>
+      <c r="G38" s="10">
+        <f t="shared" si="4"/>
         <v>20.63</v>
       </c>
-      <c r="H36" s="4" t="s">
+      <c r="H38" s="4" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B37" s="8" t="s">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B39" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C39" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="D37" s="11" t="s">
+      <c r="D39" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="E37" s="10">
+      <c r="E39" s="10">
         <v>16.7</v>
       </c>
-      <c r="F37" s="9">
-        <v>1</v>
-      </c>
-      <c r="G37" s="10">
-        <f t="shared" si="3"/>
+      <c r="F39" s="9">
+        <v>1</v>
+      </c>
+      <c r="G39" s="10">
+        <f t="shared" si="4"/>
         <v>16.7</v>
       </c>
-      <c r="H37" s="4" t="s">
+      <c r="H39" s="4" t="s">
         <v>161</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B38" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="D38" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="E38" s="14">
-        <v>2.59</v>
-      </c>
-      <c r="F38" s="13">
-        <v>10</v>
-      </c>
-      <c r="G38" s="14">
-        <f t="shared" si="3"/>
-        <v>25.9</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B39" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C39" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="D39" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E39" s="14">
-        <v>2.6</v>
-      </c>
-      <c r="F39" s="13">
-        <v>10</v>
-      </c>
-      <c r="G39" s="14">
-        <f t="shared" si="3"/>
-        <v>26</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.45">
@@ -1885,23 +1873,23 @@
         <v>40</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E40" s="14">
-        <v>2.6</v>
+        <v>2.59</v>
       </c>
       <c r="F40" s="13">
         <v>10</v>
       </c>
       <c r="G40" s="14">
-        <f t="shared" si="3"/>
-        <v>26</v>
+        <f t="shared" si="4"/>
+        <v>25.9</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.45">
@@ -1909,23 +1897,23 @@
         <v>40</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E41" s="14">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="F41" s="13">
         <v>10</v>
       </c>
       <c r="G41" s="14">
-        <f t="shared" si="3"/>
-        <v>27.5</v>
+        <f t="shared" si="4"/>
+        <v>26</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.45">
@@ -1933,23 +1921,23 @@
         <v>40</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="E42" s="14">
-        <v>0.38</v>
+        <v>2.6</v>
       </c>
       <c r="F42" s="13">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G42" s="14">
-        <f t="shared" si="3"/>
-        <v>19</v>
+        <f t="shared" si="4"/>
+        <v>26</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.45">
@@ -1957,23 +1945,23 @@
         <v>40</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="E43" s="14">
-        <v>7.62</v>
+        <v>2.75</v>
       </c>
       <c r="F43" s="13">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G43" s="14">
-        <f t="shared" si="3"/>
-        <v>7.62</v>
+        <f t="shared" si="4"/>
+        <v>27.5</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>138</v>
+        <v>103</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.45">
@@ -1981,23 +1969,23 @@
         <v>40</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="E44" s="14">
-        <v>9.07</v>
+        <v>0.38</v>
       </c>
       <c r="F44" s="13">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="G44" s="14">
-        <f t="shared" si="3"/>
-        <v>9.07</v>
+        <f t="shared" si="4"/>
+        <v>19</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>139</v>
+        <v>110</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.45">
@@ -2005,23 +1993,23 @@
         <v>40</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E45" s="14">
-        <v>9.25</v>
+        <v>7.62</v>
       </c>
       <c r="F45" s="13">
         <v>1</v>
       </c>
       <c r="G45" s="14">
-        <f t="shared" si="3"/>
-        <v>9.25</v>
+        <f t="shared" si="4"/>
+        <v>7.62</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.45">
@@ -2029,23 +2017,23 @@
         <v>40</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E46" s="14">
-        <v>14.17</v>
+        <v>9.07</v>
       </c>
       <c r="F46" s="13">
         <v>1</v>
       </c>
       <c r="G46" s="14">
-        <f t="shared" si="3"/>
-        <v>14.17</v>
+        <f t="shared" si="4"/>
+        <v>9.07</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.45">
@@ -2053,23 +2041,23 @@
         <v>40</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E47" s="14">
-        <v>8.51</v>
+        <v>9.25</v>
       </c>
       <c r="F47" s="13">
         <v>1</v>
       </c>
       <c r="G47" s="14">
-        <f t="shared" si="3"/>
-        <v>8.51</v>
+        <f t="shared" si="4"/>
+        <v>9.25</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.45">
@@ -2077,23 +2065,23 @@
         <v>40</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="E48" s="14">
-        <v>6.41</v>
+        <v>14.17</v>
       </c>
       <c r="F48" s="13">
         <v>1</v>
       </c>
       <c r="G48" s="14">
-        <f t="shared" si="3"/>
-        <v>6.41</v>
+        <f t="shared" si="4"/>
+        <v>14.17</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.45">
@@ -2101,23 +2089,23 @@
         <v>40</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="E49" s="14">
-        <v>15.47</v>
+        <v>8.51</v>
       </c>
       <c r="F49" s="13">
         <v>1</v>
       </c>
       <c r="G49" s="14">
-        <f t="shared" si="3"/>
-        <v>15.47</v>
+        <f t="shared" si="4"/>
+        <v>8.51</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.45">
@@ -2125,109 +2113,157 @@
         <v>40</v>
       </c>
       <c r="C50" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="E50" s="14">
+        <v>6.41</v>
+      </c>
+      <c r="F50" s="13">
+        <v>1</v>
+      </c>
+      <c r="G50" s="14">
+        <f t="shared" si="4"/>
+        <v>6.41</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B51" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="D51" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="E51" s="14">
+        <v>15.47</v>
+      </c>
+      <c r="F51" s="13">
+        <v>1</v>
+      </c>
+      <c r="G51" s="14">
+        <f t="shared" si="4"/>
+        <v>15.47</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B52" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C52" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="D50" s="17" t="s">
+      <c r="D52" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="E50" s="14">
+      <c r="E52" s="14">
         <v>28.96</v>
       </c>
-      <c r="F50" s="13">
-        <v>1</v>
-      </c>
-      <c r="G50" s="14">
-        <f t="shared" si="3"/>
+      <c r="F52" s="13">
+        <v>1</v>
+      </c>
+      <c r="G52" s="14">
+        <f t="shared" si="4"/>
         <v>28.96</v>
       </c>
-      <c r="H50" s="4" t="s">
+      <c r="H52" s="4" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B51" s="20"/>
-      <c r="C51" s="19"/>
-      <c r="D51" s="25"/>
-      <c r="E51" s="21"/>
-      <c r="F51" s="19"/>
-      <c r="G51" s="21"/>
-      <c r="H51" s="4"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="H52" s="4"/>
-    </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A53" s="7" t="s">
+      <c r="B53" s="20"/>
+      <c r="C53" s="19"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="19"/>
+      <c r="G53" s="21"/>
+      <c r="H53" s="4"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="H54" s="4"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A55" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B53" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C53" s="13" t="s">
+      <c r="B55" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C55" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="D53" s="17" t="s">
+      <c r="D55" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="E53" s="14">
+      <c r="E55" s="14">
         <v>318.16000000000003</v>
       </c>
-      <c r="F53" s="13">
-        <v>1</v>
-      </c>
-      <c r="G53" s="14">
-        <f>E53*F53</f>
-        <v>318.16000000000003</v>
-      </c>
-      <c r="H53" s="22" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B54" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C54" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="D54" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E54" s="14">
-        <v>28.5</v>
-      </c>
-      <c r="F54" s="13">
-        <v>1</v>
-      </c>
-      <c r="G54" s="14">
-        <f t="shared" si="3"/>
-        <v>28.5</v>
-      </c>
-      <c r="H54" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B55" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C55" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="D55" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="E55" s="14">
-        <v>9.83</v>
-      </c>
       <c r="F55" s="13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G55" s="14">
         <f>E55*F55</f>
+        <v>318.16000000000003</v>
+      </c>
+      <c r="H55" s="22" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B56" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D56" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E56" s="14">
+        <v>28.5</v>
+      </c>
+      <c r="F56" s="13">
+        <v>1</v>
+      </c>
+      <c r="G56" s="14">
+        <f t="shared" si="4"/>
+        <v>28.5</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B57" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="D57" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="E57" s="14">
+        <v>9.83</v>
+      </c>
+      <c r="F57" s="13">
+        <v>3</v>
+      </c>
+      <c r="G57" s="14">
+        <f>E57*F57</f>
         <v>29.490000000000002</v>
       </c>
-      <c r="H55" s="4" t="s">
+      <c r="H57" s="4" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2237,39 +2273,40 @@
     <hyperlink ref="H8" r:id="rId1" xr:uid="{A64CAE9B-1807-408A-9730-9DF7343D63C0}"/>
     <hyperlink ref="H9" r:id="rId2" xr:uid="{B4173ABE-0E2E-4491-91E5-AA6F3B68F059}"/>
     <hyperlink ref="H10" r:id="rId3" xr:uid="{F7ACD48F-A269-40D8-BF7B-22E66F64BC82}"/>
-    <hyperlink ref="H26" r:id="rId4" xr:uid="{F6FBD8A3-C34C-4E27-AC60-0FD82F392FBC}"/>
-    <hyperlink ref="H25" r:id="rId5" xr:uid="{36E03E41-1F6C-4A85-A49E-3B2E800C7979}"/>
-    <hyperlink ref="H27" r:id="rId6" xr:uid="{37641EC4-3B22-4ED5-8852-D01C205DEB09}"/>
+    <hyperlink ref="H28" r:id="rId4" xr:uid="{F6FBD8A3-C34C-4E27-AC60-0FD82F392FBC}"/>
+    <hyperlink ref="H27" r:id="rId5" xr:uid="{36E03E41-1F6C-4A85-A49E-3B2E800C7979}"/>
+    <hyperlink ref="H29" r:id="rId6" xr:uid="{37641EC4-3B22-4ED5-8852-D01C205DEB09}"/>
     <hyperlink ref="H7" r:id="rId7" xr:uid="{94EA38E1-188B-4B90-8740-9CE54976206B}"/>
     <hyperlink ref="H3" r:id="rId8" xr:uid="{C124242C-A1BD-4116-9B70-6ACA545A16EB}"/>
     <hyperlink ref="H5" r:id="rId9" xr:uid="{D567AB98-A94E-488A-9D8F-F77570B5F0E2}"/>
-    <hyperlink ref="H28" r:id="rId10" xr:uid="{C27F2911-500D-41BD-A6F3-5348A5B530C9}"/>
+    <hyperlink ref="H30" r:id="rId10" xr:uid="{C27F2911-500D-41BD-A6F3-5348A5B530C9}"/>
     <hyperlink ref="H13" r:id="rId11" xr:uid="{2C5C7988-C77A-4770-8AA2-B23B55E29CBF}"/>
     <hyperlink ref="H12" r:id="rId12" xr:uid="{22278761-7B55-4BAE-BB95-F178E7D7274C}"/>
     <hyperlink ref="H11" r:id="rId13" xr:uid="{DC06FE0D-1B92-45BE-9F17-45555A1E25AE}"/>
-    <hyperlink ref="H30" r:id="rId14" xr:uid="{B64B3EEF-A8DB-4639-8B3D-02528969B7A4}"/>
+    <hyperlink ref="H32" r:id="rId14" xr:uid="{B64B3EEF-A8DB-4639-8B3D-02528969B7A4}"/>
     <hyperlink ref="H15" r:id="rId15" xr:uid="{9CE1B218-A51B-4D74-8E60-BC48A6732159}"/>
-    <hyperlink ref="H29" r:id="rId16" xr:uid="{21139B33-0F0B-40A6-A529-31ED4FA41410}"/>
-    <hyperlink ref="H33" r:id="rId17" xr:uid="{2FB12F3E-2615-4CE9-857F-9A7A5B1D9736}"/>
-    <hyperlink ref="H55" r:id="rId18" xr:uid="{F2F7E969-5D11-4304-BC12-98AF6A6F8DB8}"/>
-    <hyperlink ref="H54" r:id="rId19" xr:uid="{BC166A5C-E799-4B24-8CD9-D0CFD834F7A9}"/>
-    <hyperlink ref="H31" r:id="rId20" xr:uid="{CA7C0345-0A84-4520-B968-21F94DB74B6F}"/>
-    <hyperlink ref="H32" r:id="rId21" xr:uid="{98E0B643-0B27-4820-9B32-2ED486935FC0}"/>
+    <hyperlink ref="H31" r:id="rId16" xr:uid="{21139B33-0F0B-40A6-A529-31ED4FA41410}"/>
+    <hyperlink ref="H35" r:id="rId17" xr:uid="{2FB12F3E-2615-4CE9-857F-9A7A5B1D9736}"/>
+    <hyperlink ref="H57" r:id="rId18" xr:uid="{F2F7E969-5D11-4304-BC12-98AF6A6F8DB8}"/>
+    <hyperlink ref="H56" r:id="rId19" xr:uid="{BC166A5C-E799-4B24-8CD9-D0CFD834F7A9}"/>
+    <hyperlink ref="H33" r:id="rId20" xr:uid="{CA7C0345-0A84-4520-B968-21F94DB74B6F}"/>
+    <hyperlink ref="H34" r:id="rId21" xr:uid="{98E0B643-0B27-4820-9B32-2ED486935FC0}"/>
     <hyperlink ref="H17" r:id="rId22" xr:uid="{BCE8848E-1B0B-40B8-A1F5-1B128E2593DD}"/>
     <hyperlink ref="H18" r:id="rId23" xr:uid="{199DA21A-E359-4CB4-ADF2-1F282FAA3324}"/>
     <hyperlink ref="H21" r:id="rId24" xr:uid="{5433A4AE-4217-4EE7-930C-A0E613EE6AA3}"/>
     <hyperlink ref="H19" r:id="rId25" xr:uid="{ED7DC865-0754-4677-BBE5-BF4AF851177F}"/>
     <hyperlink ref="H22" r:id="rId26" xr:uid="{84A0CCC1-A592-4931-A941-E5326C8FC464}"/>
     <hyperlink ref="H14" r:id="rId27" xr:uid="{E15EEAD3-0BA4-4EAA-B8F8-731BE217E79B}"/>
-    <hyperlink ref="H44" r:id="rId28" xr:uid="{E27B3782-52AC-4DD1-9C40-C9CAE2CD205F}"/>
-    <hyperlink ref="H45" r:id="rId29" xr:uid="{FA68116D-962D-438B-964C-3508A341D914}"/>
-    <hyperlink ref="H46" r:id="rId30" xr:uid="{04802529-4914-4832-9CA2-2D2BD0F76FD6}"/>
-    <hyperlink ref="H47" r:id="rId31" xr:uid="{D97DA7B3-DB8B-4A29-922C-1947EA3D1DA0}"/>
-    <hyperlink ref="H34" r:id="rId32" xr:uid="{578C99D7-4447-40EF-8C65-759B18DC19FC}"/>
-    <hyperlink ref="H48" r:id="rId33" xr:uid="{68C87FBD-315D-4D2B-BA53-B60E11432DC6}"/>
-    <hyperlink ref="H35" r:id="rId34" xr:uid="{F2D2CBB0-73A5-4D87-8FF0-E76A17D41BDD}"/>
+    <hyperlink ref="H46" r:id="rId28" xr:uid="{E27B3782-52AC-4DD1-9C40-C9CAE2CD205F}"/>
+    <hyperlink ref="H47" r:id="rId29" xr:uid="{FA68116D-962D-438B-964C-3508A341D914}"/>
+    <hyperlink ref="H48" r:id="rId30" xr:uid="{04802529-4914-4832-9CA2-2D2BD0F76FD6}"/>
+    <hyperlink ref="H49" r:id="rId31" xr:uid="{D97DA7B3-DB8B-4A29-922C-1947EA3D1DA0}"/>
+    <hyperlink ref="H36" r:id="rId32" xr:uid="{578C99D7-4447-40EF-8C65-759B18DC19FC}"/>
+    <hyperlink ref="H50" r:id="rId33" xr:uid="{68C87FBD-315D-4D2B-BA53-B60E11432DC6}"/>
+    <hyperlink ref="H37" r:id="rId34" xr:uid="{F2D2CBB0-73A5-4D87-8FF0-E76A17D41BDD}"/>
+    <hyperlink ref="H24" r:id="rId35" xr:uid="{CF21FA46-6577-4015-A9D8-2C1F05535812}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId35"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId36"/>
 </worksheet>
 </file>
--- a/docs/shopping_list.xlsx
+++ b/docs/shopping_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\_GitHub_repo\project-TWT-jetting-grid\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D898CAAF-FCE8-40EA-AF1A-CAC9DD4E3A6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64419CF8-BAE5-4CD0-AD74-FA4A2A7FB362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="26318" windowHeight="16395" xr2:uid="{6ACBF970-17D1-4E70-A647-E338031FE07A}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="26311" windowHeight="16395" xr2:uid="{6ACBF970-17D1-4E70-A647-E338031FE07A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="172">
   <si>
     <t>https://www.omega.nl/pptst/PXM309.html</t>
   </si>
@@ -545,6 +545,24 @@
   </si>
   <si>
     <t>https://www.vanallesenmeer.nl/Non-Latching-Mini-Relay-FeatherWing-Adafruit-2895</t>
+  </si>
+  <si>
+    <t>Cable glands, M20x1.5</t>
+  </si>
+  <si>
+    <t>Cable 22 AWG</t>
+  </si>
+  <si>
+    <t>Cable shoes, crimp, quick disconnect terminal</t>
+  </si>
+  <si>
+    <t>https://nl.farnell.com/amp-te-connectivity/518553-000/contact-socket-18-15awg/dp/1863417</t>
+  </si>
+  <si>
+    <t>AMP 518553-000</t>
+  </si>
+  <si>
+    <t>https://nl.farnell.com/jacob/50013m20pasw-f/gland-dome-top-polyamide-m20/dp/1168784</t>
   </si>
 </sst>
 </file>
@@ -999,10 +1017,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EABDC01-B8C9-4DFC-A32F-D1F25B52CF32}">
-  <dimension ref="A1:I57"/>
+  <dimension ref="A1:I59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1369,103 +1387,104 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B16" s="20"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="4"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="E16" s="14">
+        <v>10.45</v>
+      </c>
+      <c r="F16" s="13">
+        <v>1</v>
+      </c>
+      <c r="G16" s="14">
+        <f>E16*F16</f>
+        <v>10.45</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A17" s="7" t="s">
+      <c r="B17" s="20"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A18" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="B17" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="13" t="s">
+      <c r="B18" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D18" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E18" s="14">
         <v>25.61</v>
       </c>
-      <c r="F17" s="13">
-        <v>1</v>
-      </c>
-      <c r="G17" s="14">
-        <f>E17*F17</f>
-        <v>25.61</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B18" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="E18" s="14">
-        <v>21</v>
-      </c>
       <c r="F18" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G18" s="14">
         <f>E18*F18</f>
+        <v>25.61</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B19" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="E19" s="14">
+        <v>21</v>
+      </c>
+      <c r="F19" s="13">
+        <v>2</v>
+      </c>
+      <c r="G19" s="14">
+        <f>E19*F19</f>
         <v>42</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="H19" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A19" s="7"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="24" t="s">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A20" s="7"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D20" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="E19" s="14"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="4" t="s">
+      <c r="E20" s="14"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="4" t="s">
         <v>122</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B20" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="E20" s="14">
-        <v>0.82</v>
-      </c>
-      <c r="F20" s="13">
-        <v>20</v>
-      </c>
-      <c r="G20" s="14">
-        <f>E20*F20</f>
-        <v>16.399999999999999</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.45">
@@ -1473,157 +1492,200 @@
         <v>40</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E21" s="14">
-        <v>0.12</v>
+        <v>0.82</v>
       </c>
       <c r="F21" s="13">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G21" s="14">
         <f>E21*F21</f>
-        <v>3.5999999999999996</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A22" s="7"/>
       <c r="B22" s="12" t="s">
         <v>40</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="E22" s="14">
-        <v>0.22</v>
+        <v>0.12</v>
       </c>
       <c r="F22" s="13">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G22" s="14">
         <f>E22*F22</f>
-        <v>2.2000000000000002</v>
+        <v>3.5999999999999996</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A23" s="7"/>
-      <c r="C23" s="19"/>
-      <c r="G23" s="21"/>
+      <c r="B23" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="E23" s="14">
+        <v>0.22</v>
+      </c>
+      <c r="F23" s="13">
+        <v>10</v>
+      </c>
+      <c r="G23" s="14">
+        <f>E23*F23</f>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A24" s="7"/>
-      <c r="C24" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="E24" s="10">
-        <v>10.45</v>
-      </c>
-      <c r="F24" s="9">
-        <v>1</v>
-      </c>
-      <c r="G24" s="10">
-        <f t="shared" ref="G23:G24" si="3">E24*F24</f>
-        <v>10.45</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>165</v>
-      </c>
+      <c r="H24" s="4"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A25" s="7"/>
-      <c r="C25" s="19"/>
+      <c r="A25" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="14">
+        <v>14</v>
+      </c>
+      <c r="F25" s="13">
+        <v>8</v>
+      </c>
+      <c r="G25" s="14">
+        <f t="shared" ref="G25:G58" si="3">E25*F25</f>
+        <v>112</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="H26" s="4"/>
+      <c r="B26" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="14">
+        <v>35</v>
+      </c>
+      <c r="F26" s="13">
+        <v>8</v>
+      </c>
+      <c r="G26" s="14">
+        <f t="shared" si="3"/>
+        <v>280</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A27" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>14</v>
+      <c r="B27" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>17</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E27" s="14">
-        <v>14</v>
+        <v>7.4</v>
       </c>
       <c r="F27" s="13">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="G27" s="14">
-        <f t="shared" ref="G27:G56" si="4">E27*F27</f>
-        <v>112</v>
+        <f t="shared" si="3"/>
+        <v>414.40000000000003</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="12" t="s">
         <v>40</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E28" s="14">
-        <v>35</v>
+        <v>10.7</v>
       </c>
       <c r="F28" s="13">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="G28" s="14">
-        <f t="shared" si="4"/>
-        <v>280</v>
+        <f t="shared" si="3"/>
+        <v>599.19999999999993</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B29" s="26" t="s">
+      <c r="B29" s="12" t="s">
         <v>40</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E29" s="14">
-        <v>7.4</v>
+        <v>243.8</v>
       </c>
       <c r="F29" s="13">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="G29" s="14">
-        <f t="shared" si="4"/>
-        <v>414.40000000000003</v>
+        <v>243.8</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>25</v>
+        <v>74</v>
+      </c>
+      <c r="I29" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.45">
@@ -1631,23 +1693,23 @@
         <v>40</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>20</v>
+        <v>54</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>56</v>
       </c>
       <c r="E30" s="14">
-        <v>10.7</v>
+        <v>15</v>
       </c>
       <c r="F30" s="13">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="G30" s="14">
-        <f t="shared" si="4"/>
-        <v>599.19999999999993</v>
+        <f>E30*F30</f>
+        <v>15</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.45">
@@ -1655,25 +1717,23 @@
         <v>40</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>21</v>
+        <v>87</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>88</v>
       </c>
       <c r="E31" s="14">
-        <v>243.8</v>
+        <v>2.34</v>
       </c>
       <c r="F31" s="13">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G31" s="14">
-        <v>243.8</v>
+        <f t="shared" si="3"/>
+        <v>23.4</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="I31" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.45">
@@ -1681,23 +1741,23 @@
         <v>40</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E32" s="14">
-        <v>15</v>
+        <v>49.14</v>
       </c>
       <c r="F32" s="13">
         <v>1</v>
       </c>
       <c r="G32" s="14">
-        <f>E32*F32</f>
-        <v>15</v>
+        <f t="shared" si="3"/>
+        <v>49.14</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.45">
@@ -1705,23 +1765,23 @@
         <v>40</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>87</v>
+        <v>159</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="E33" s="14">
-        <v>2.34</v>
+        <v>82.12</v>
       </c>
       <c r="F33" s="13">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G33" s="14">
-        <f t="shared" si="4"/>
-        <v>23.4</v>
+        <f t="shared" si="3"/>
+        <v>82.12</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.45">
@@ -1729,23 +1789,23 @@
         <v>40</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>48</v>
+        <v>157</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="E34" s="14">
-        <v>49.14</v>
+        <v>16.25</v>
       </c>
       <c r="F34" s="13">
         <v>1</v>
       </c>
       <c r="G34" s="14">
-        <f t="shared" si="4"/>
-        <v>49.14</v>
+        <f t="shared" si="3"/>
+        <v>16.25</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.45">
@@ -1753,119 +1813,119 @@
         <v>40</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>159</v>
+        <v>80</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>76</v>
+        <v>152</v>
       </c>
       <c r="E35" s="14">
-        <v>82.12</v>
+        <v>1.27</v>
       </c>
       <c r="F35" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G35" s="14">
-        <f t="shared" si="4"/>
-        <v>82.12</v>
+        <f t="shared" si="3"/>
+        <v>2.54</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>77</v>
+        <v>153</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B36" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="D36" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="E36" s="14">
-        <v>16.25</v>
-      </c>
-      <c r="F36" s="13">
-        <v>1</v>
-      </c>
-      <c r="G36" s="14">
-        <f t="shared" si="4"/>
-        <v>16.25</v>
+      <c r="B36" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E36" s="10">
+        <v>20.63</v>
+      </c>
+      <c r="F36" s="9">
+        <v>1</v>
+      </c>
+      <c r="G36" s="10">
+        <f t="shared" si="3"/>
+        <v>20.63</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>78</v>
+        <v>155</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B37" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C37" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="D37" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="E37" s="14">
-        <v>1.27</v>
-      </c>
-      <c r="F37" s="13">
-        <v>2</v>
-      </c>
-      <c r="G37" s="14">
-        <f t="shared" si="4"/>
-        <v>2.54</v>
+      <c r="B37" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="E37" s="10">
+        <v>16.7</v>
+      </c>
+      <c r="F37" s="9">
+        <v>1</v>
+      </c>
+      <c r="G37" s="10">
+        <f t="shared" si="3"/>
+        <v>16.7</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B38" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="E38" s="10">
-        <v>20.63</v>
-      </c>
-      <c r="F38" s="9">
-        <v>1</v>
-      </c>
-      <c r="G38" s="10">
-        <f t="shared" si="4"/>
-        <v>20.63</v>
+      <c r="B38" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="E38" s="14">
+        <v>2.59</v>
+      </c>
+      <c r="F38" s="13">
+        <v>10</v>
+      </c>
+      <c r="G38" s="14">
+        <f t="shared" si="3"/>
+        <v>25.9</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>155</v>
+        <v>96</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B39" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="E39" s="10">
-        <v>16.7</v>
-      </c>
-      <c r="F39" s="9">
-        <v>1</v>
-      </c>
-      <c r="G39" s="10">
-        <f t="shared" si="4"/>
-        <v>16.7</v>
+      <c r="B39" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E39" s="14">
+        <v>2.6</v>
+      </c>
+      <c r="F39" s="13">
+        <v>10</v>
+      </c>
+      <c r="G39" s="14">
+        <f t="shared" si="3"/>
+        <v>26</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>161</v>
+        <v>99</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.45">
@@ -1873,23 +1933,23 @@
         <v>40</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E40" s="14">
-        <v>2.59</v>
+        <v>2.6</v>
       </c>
       <c r="F40" s="13">
         <v>10</v>
       </c>
       <c r="G40" s="14">
-        <f t="shared" si="4"/>
-        <v>25.9</v>
+        <f t="shared" si="3"/>
+        <v>26</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.45">
@@ -1897,23 +1957,23 @@
         <v>40</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E41" s="14">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="F41" s="13">
         <v>10</v>
       </c>
       <c r="G41" s="14">
-        <f t="shared" si="4"/>
-        <v>26</v>
+        <f t="shared" si="3"/>
+        <v>27.5</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.45">
@@ -1921,23 +1981,23 @@
         <v>40</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="E42" s="14">
-        <v>2.6</v>
+        <v>0.38</v>
       </c>
       <c r="F42" s="13">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G42" s="14">
-        <f t="shared" si="4"/>
-        <v>26</v>
+        <f t="shared" si="3"/>
+        <v>19</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.45">
@@ -1945,23 +2005,23 @@
         <v>40</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>102</v>
+        <v>133</v>
       </c>
       <c r="E43" s="14">
-        <v>2.75</v>
+        <v>7.62</v>
       </c>
       <c r="F43" s="13">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G43" s="14">
-        <f t="shared" si="4"/>
-        <v>27.5</v>
+        <f t="shared" si="3"/>
+        <v>7.62</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>103</v>
+        <v>138</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.45">
@@ -1969,23 +2029,23 @@
         <v>40</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>109</v>
+        <v>134</v>
       </c>
       <c r="E44" s="14">
-        <v>0.38</v>
+        <v>9.07</v>
       </c>
       <c r="F44" s="13">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="G44" s="14">
-        <f t="shared" si="4"/>
-        <v>19</v>
+        <f t="shared" si="3"/>
+        <v>9.07</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>110</v>
+        <v>139</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.45">
@@ -1993,23 +2053,23 @@
         <v>40</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E45" s="14">
-        <v>7.62</v>
+        <v>9.25</v>
       </c>
       <c r="F45" s="13">
         <v>1</v>
       </c>
       <c r="G45" s="14">
-        <f t="shared" si="4"/>
-        <v>7.62</v>
+        <f t="shared" si="3"/>
+        <v>9.25</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.45">
@@ -2017,23 +2077,23 @@
         <v>40</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E46" s="14">
-        <v>9.07</v>
+        <v>14.17</v>
       </c>
       <c r="F46" s="13">
         <v>1</v>
       </c>
       <c r="G46" s="14">
-        <f t="shared" si="4"/>
-        <v>9.07</v>
+        <f t="shared" si="3"/>
+        <v>14.17</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.45">
@@ -2041,23 +2101,23 @@
         <v>40</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E47" s="14">
-        <v>9.25</v>
+        <v>8.51</v>
       </c>
       <c r="F47" s="13">
         <v>1</v>
       </c>
       <c r="G47" s="14">
-        <f t="shared" si="4"/>
-        <v>9.25</v>
+        <f t="shared" si="3"/>
+        <v>8.51</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.45">
@@ -2065,23 +2125,23 @@
         <v>40</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="E48" s="14">
-        <v>14.17</v>
+        <v>6.41</v>
       </c>
       <c r="F48" s="13">
         <v>1</v>
       </c>
       <c r="G48" s="14">
-        <f t="shared" si="4"/>
-        <v>14.17</v>
+        <f t="shared" si="3"/>
+        <v>6.41</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.45">
@@ -2089,23 +2149,23 @@
         <v>40</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="E49" s="14">
-        <v>8.51</v>
+        <v>15.47</v>
       </c>
       <c r="F49" s="13">
         <v>1</v>
       </c>
       <c r="G49" s="14">
-        <f t="shared" si="4"/>
-        <v>8.51</v>
+        <f t="shared" si="3"/>
+        <v>15.47</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.45">
@@ -2113,157 +2173,157 @@
         <v>40</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="E50" s="14">
-        <v>6.41</v>
+        <v>28.96</v>
       </c>
       <c r="F50" s="13">
         <v>1</v>
       </c>
       <c r="G50" s="14">
-        <f t="shared" si="4"/>
-        <v>6.41</v>
+        <f t="shared" si="3"/>
+        <v>28.96</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B51" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C51" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="D51" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="E51" s="14">
-        <v>15.47</v>
-      </c>
-      <c r="F51" s="13">
-        <v>1</v>
-      </c>
-      <c r="G51" s="14">
-        <f t="shared" si="4"/>
-        <v>15.47</v>
-      </c>
+      <c r="B51" s="8"/>
+      <c r="C51" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="D51" s="11"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="10"/>
       <c r="H51" s="4" t="s">
-        <v>147</v>
+        <v>171</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B52" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C52" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="D52" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="E52" s="14">
-        <v>28.96</v>
-      </c>
-      <c r="F52" s="13">
-        <v>1</v>
-      </c>
-      <c r="G52" s="14">
-        <f t="shared" si="4"/>
-        <v>28.96</v>
-      </c>
+      <c r="B52" s="8"/>
+      <c r="C52" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="E52" s="10"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="10"/>
       <c r="H52" s="4" t="s">
-        <v>146</v>
+        <v>169</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B53" s="20"/>
-      <c r="C53" s="19"/>
-      <c r="D53" s="25"/>
-      <c r="E53" s="21"/>
-      <c r="F53" s="19"/>
-      <c r="G53" s="21"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="D53" s="11"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="10"/>
       <c r="H53" s="4"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B54" s="8"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="10"/>
       <c r="H54" s="4"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A55" s="7" t="s">
+      <c r="B55" s="20"/>
+      <c r="C55" s="19"/>
+      <c r="D55" s="25"/>
+      <c r="E55" s="21"/>
+      <c r="F55" s="19"/>
+      <c r="G55" s="21"/>
+      <c r="H55" s="4"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="H56" s="4"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A57" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B55" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C55" s="13" t="s">
+      <c r="B57" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C57" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="D55" s="17" t="s">
+      <c r="D57" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="E55" s="14">
+      <c r="E57" s="14">
         <v>318.16000000000003</v>
       </c>
-      <c r="F55" s="13">
-        <v>1</v>
-      </c>
-      <c r="G55" s="14">
-        <f>E55*F55</f>
-        <v>318.16000000000003</v>
-      </c>
-      <c r="H55" s="22" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B56" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C56" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="D56" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E56" s="14">
-        <v>28.5</v>
-      </c>
-      <c r="F56" s="13">
-        <v>1</v>
-      </c>
-      <c r="G56" s="14">
-        <f t="shared" si="4"/>
-        <v>28.5</v>
-      </c>
-      <c r="H56" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B57" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C57" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="D57" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="E57" s="14">
-        <v>9.83</v>
-      </c>
       <c r="F57" s="13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G57" s="14">
         <f>E57*F57</f>
+        <v>318.16000000000003</v>
+      </c>
+      <c r="H57" s="22" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B58" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C58" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D58" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E58" s="14">
+        <v>28.5</v>
+      </c>
+      <c r="F58" s="13">
+        <v>1</v>
+      </c>
+      <c r="G58" s="14">
+        <f t="shared" si="3"/>
+        <v>28.5</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B59" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C59" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="D59" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="E59" s="14">
+        <v>9.83</v>
+      </c>
+      <c r="F59" s="13">
+        <v>3</v>
+      </c>
+      <c r="G59" s="14">
+        <f>E59*F59</f>
         <v>29.490000000000002</v>
       </c>
-      <c r="H57" s="4" t="s">
+      <c r="H59" s="4" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2273,38 +2333,38 @@
     <hyperlink ref="H8" r:id="rId1" xr:uid="{A64CAE9B-1807-408A-9730-9DF7343D63C0}"/>
     <hyperlink ref="H9" r:id="rId2" xr:uid="{B4173ABE-0E2E-4491-91E5-AA6F3B68F059}"/>
     <hyperlink ref="H10" r:id="rId3" xr:uid="{F7ACD48F-A269-40D8-BF7B-22E66F64BC82}"/>
-    <hyperlink ref="H28" r:id="rId4" xr:uid="{F6FBD8A3-C34C-4E27-AC60-0FD82F392FBC}"/>
-    <hyperlink ref="H27" r:id="rId5" xr:uid="{36E03E41-1F6C-4A85-A49E-3B2E800C7979}"/>
-    <hyperlink ref="H29" r:id="rId6" xr:uid="{37641EC4-3B22-4ED5-8852-D01C205DEB09}"/>
+    <hyperlink ref="H26" r:id="rId4" xr:uid="{F6FBD8A3-C34C-4E27-AC60-0FD82F392FBC}"/>
+    <hyperlink ref="H25" r:id="rId5" xr:uid="{36E03E41-1F6C-4A85-A49E-3B2E800C7979}"/>
+    <hyperlink ref="H27" r:id="rId6" xr:uid="{37641EC4-3B22-4ED5-8852-D01C205DEB09}"/>
     <hyperlink ref="H7" r:id="rId7" xr:uid="{94EA38E1-188B-4B90-8740-9CE54976206B}"/>
     <hyperlink ref="H3" r:id="rId8" xr:uid="{C124242C-A1BD-4116-9B70-6ACA545A16EB}"/>
     <hyperlink ref="H5" r:id="rId9" xr:uid="{D567AB98-A94E-488A-9D8F-F77570B5F0E2}"/>
-    <hyperlink ref="H30" r:id="rId10" xr:uid="{C27F2911-500D-41BD-A6F3-5348A5B530C9}"/>
+    <hyperlink ref="H28" r:id="rId10" xr:uid="{C27F2911-500D-41BD-A6F3-5348A5B530C9}"/>
     <hyperlink ref="H13" r:id="rId11" xr:uid="{2C5C7988-C77A-4770-8AA2-B23B55E29CBF}"/>
     <hyperlink ref="H12" r:id="rId12" xr:uid="{22278761-7B55-4BAE-BB95-F178E7D7274C}"/>
     <hyperlink ref="H11" r:id="rId13" xr:uid="{DC06FE0D-1B92-45BE-9F17-45555A1E25AE}"/>
-    <hyperlink ref="H32" r:id="rId14" xr:uid="{B64B3EEF-A8DB-4639-8B3D-02528969B7A4}"/>
+    <hyperlink ref="H30" r:id="rId14" xr:uid="{B64B3EEF-A8DB-4639-8B3D-02528969B7A4}"/>
     <hyperlink ref="H15" r:id="rId15" xr:uid="{9CE1B218-A51B-4D74-8E60-BC48A6732159}"/>
-    <hyperlink ref="H31" r:id="rId16" xr:uid="{21139B33-0F0B-40A6-A529-31ED4FA41410}"/>
-    <hyperlink ref="H35" r:id="rId17" xr:uid="{2FB12F3E-2615-4CE9-857F-9A7A5B1D9736}"/>
-    <hyperlink ref="H57" r:id="rId18" xr:uid="{F2F7E969-5D11-4304-BC12-98AF6A6F8DB8}"/>
-    <hyperlink ref="H56" r:id="rId19" xr:uid="{BC166A5C-E799-4B24-8CD9-D0CFD834F7A9}"/>
-    <hyperlink ref="H33" r:id="rId20" xr:uid="{CA7C0345-0A84-4520-B968-21F94DB74B6F}"/>
-    <hyperlink ref="H34" r:id="rId21" xr:uid="{98E0B643-0B27-4820-9B32-2ED486935FC0}"/>
-    <hyperlink ref="H17" r:id="rId22" xr:uid="{BCE8848E-1B0B-40B8-A1F5-1B128E2593DD}"/>
-    <hyperlink ref="H18" r:id="rId23" xr:uid="{199DA21A-E359-4CB4-ADF2-1F282FAA3324}"/>
-    <hyperlink ref="H21" r:id="rId24" xr:uid="{5433A4AE-4217-4EE7-930C-A0E613EE6AA3}"/>
-    <hyperlink ref="H19" r:id="rId25" xr:uid="{ED7DC865-0754-4677-BBE5-BF4AF851177F}"/>
-    <hyperlink ref="H22" r:id="rId26" xr:uid="{84A0CCC1-A592-4931-A941-E5326C8FC464}"/>
+    <hyperlink ref="H29" r:id="rId16" xr:uid="{21139B33-0F0B-40A6-A529-31ED4FA41410}"/>
+    <hyperlink ref="H33" r:id="rId17" xr:uid="{2FB12F3E-2615-4CE9-857F-9A7A5B1D9736}"/>
+    <hyperlink ref="H59" r:id="rId18" xr:uid="{F2F7E969-5D11-4304-BC12-98AF6A6F8DB8}"/>
+    <hyperlink ref="H58" r:id="rId19" xr:uid="{BC166A5C-E799-4B24-8CD9-D0CFD834F7A9}"/>
+    <hyperlink ref="H31" r:id="rId20" xr:uid="{CA7C0345-0A84-4520-B968-21F94DB74B6F}"/>
+    <hyperlink ref="H32" r:id="rId21" xr:uid="{98E0B643-0B27-4820-9B32-2ED486935FC0}"/>
+    <hyperlink ref="H18" r:id="rId22" xr:uid="{BCE8848E-1B0B-40B8-A1F5-1B128E2593DD}"/>
+    <hyperlink ref="H19" r:id="rId23" xr:uid="{199DA21A-E359-4CB4-ADF2-1F282FAA3324}"/>
+    <hyperlink ref="H22" r:id="rId24" xr:uid="{5433A4AE-4217-4EE7-930C-A0E613EE6AA3}"/>
+    <hyperlink ref="H20" r:id="rId25" xr:uid="{ED7DC865-0754-4677-BBE5-BF4AF851177F}"/>
+    <hyperlink ref="H23" r:id="rId26" xr:uid="{84A0CCC1-A592-4931-A941-E5326C8FC464}"/>
     <hyperlink ref="H14" r:id="rId27" xr:uid="{E15EEAD3-0BA4-4EAA-B8F8-731BE217E79B}"/>
-    <hyperlink ref="H46" r:id="rId28" xr:uid="{E27B3782-52AC-4DD1-9C40-C9CAE2CD205F}"/>
-    <hyperlink ref="H47" r:id="rId29" xr:uid="{FA68116D-962D-438B-964C-3508A341D914}"/>
-    <hyperlink ref="H48" r:id="rId30" xr:uid="{04802529-4914-4832-9CA2-2D2BD0F76FD6}"/>
-    <hyperlink ref="H49" r:id="rId31" xr:uid="{D97DA7B3-DB8B-4A29-922C-1947EA3D1DA0}"/>
-    <hyperlink ref="H36" r:id="rId32" xr:uid="{578C99D7-4447-40EF-8C65-759B18DC19FC}"/>
-    <hyperlink ref="H50" r:id="rId33" xr:uid="{68C87FBD-315D-4D2B-BA53-B60E11432DC6}"/>
-    <hyperlink ref="H37" r:id="rId34" xr:uid="{F2D2CBB0-73A5-4D87-8FF0-E76A17D41BDD}"/>
-    <hyperlink ref="H24" r:id="rId35" xr:uid="{CF21FA46-6577-4015-A9D8-2C1F05535812}"/>
+    <hyperlink ref="H44" r:id="rId28" xr:uid="{E27B3782-52AC-4DD1-9C40-C9CAE2CD205F}"/>
+    <hyperlink ref="H45" r:id="rId29" xr:uid="{FA68116D-962D-438B-964C-3508A341D914}"/>
+    <hyperlink ref="H46" r:id="rId30" xr:uid="{04802529-4914-4832-9CA2-2D2BD0F76FD6}"/>
+    <hyperlink ref="H47" r:id="rId31" xr:uid="{D97DA7B3-DB8B-4A29-922C-1947EA3D1DA0}"/>
+    <hyperlink ref="H34" r:id="rId32" xr:uid="{578C99D7-4447-40EF-8C65-759B18DC19FC}"/>
+    <hyperlink ref="H48" r:id="rId33" xr:uid="{68C87FBD-315D-4D2B-BA53-B60E11432DC6}"/>
+    <hyperlink ref="H35" r:id="rId34" xr:uid="{F2D2CBB0-73A5-4D87-8FF0-E76A17D41BDD}"/>
+    <hyperlink ref="H16" r:id="rId35" xr:uid="{CF21FA46-6577-4015-A9D8-2C1F05535812}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId36"/>

--- a/docs/shopping_list.xlsx
+++ b/docs/shopping_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\_GitHub_repo\project-TWT-jetting-grid\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64419CF8-BAE5-4CD0-AD74-FA4A2A7FB362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A42230-3245-4554-87A2-8F79B7F1D917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="26311" windowHeight="16395" xr2:uid="{6ACBF970-17D1-4E70-A647-E338031FE07A}"/>
+    <workbookView xWindow="6218" yWindow="4650" windowWidth="17932" windowHeight="10133" xr2:uid="{6ACBF970-17D1-4E70-A647-E338031FE07A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="178">
   <si>
     <t>https://www.omega.nl/pptst/PXM309.html</t>
   </si>
@@ -550,9 +550,6 @@
     <t>Cable glands, M20x1.5</t>
   </si>
   <si>
-    <t>Cable 22 AWG</t>
-  </si>
-  <si>
     <t>Cable shoes, crimp, quick disconnect terminal</t>
   </si>
   <si>
@@ -563,6 +560,27 @@
   </si>
   <si>
     <t>https://nl.farnell.com/jacob/50013m20pasw-f/gland-dome-top-polyamide-m20/dp/1168784</t>
+  </si>
+  <si>
+    <t>Jacob 50013M20PASW-F</t>
+  </si>
+  <si>
+    <t>Cable 22 AWG, red, stranded, tinned, PVC</t>
+  </si>
+  <si>
+    <t>https://nl.farnell.com/alpha-wire/3051-rd005/wire-red-22awg-7-30awg-30-5m/dp/2290861</t>
+  </si>
+  <si>
+    <t>Alpha wire 3051 RD005, 30m</t>
+  </si>
+  <si>
+    <t>Cable 22 AWG, black, stranded, tinned, PVC</t>
+  </si>
+  <si>
+    <t>Alpha wire 3051 BK005, 30m</t>
+  </si>
+  <si>
+    <t>https://nl.farnell.com/alpha-wire/3051-bk005/wire-blk-22awg-7-30awg-30-5m/dp/2290872</t>
   </si>
 </sst>
 </file>
@@ -1020,7 +1038,7 @@
   <dimension ref="A1:I59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="H51" sqref="H51"/>
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2193,52 +2211,100 @@
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B51" s="8"/>
+      <c r="B51" s="8" t="s">
+        <v>162</v>
+      </c>
       <c r="C51" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="D51" s="11"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="10"/>
+      <c r="D51" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="E51" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="F51" s="9">
+        <v>30</v>
+      </c>
+      <c r="G51" s="10">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
       <c r="H51" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B52" s="8"/>
+      <c r="B52" s="8" t="s">
+        <v>162</v>
+      </c>
       <c r="C52" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="E52" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="F52" s="9">
+        <v>300</v>
+      </c>
+      <c r="G52" s="10">
+        <f t="shared" si="3"/>
+        <v>240</v>
+      </c>
+      <c r="H52" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="D52" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="E52" s="10"/>
-      <c r="F52" s="9"/>
-      <c r="G52" s="10"/>
-      <c r="H52" s="4" t="s">
-        <v>169</v>
-      </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B53" s="8"/>
+      <c r="B53" s="8" t="s">
+        <v>162</v>
+      </c>
       <c r="C53" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="D53" s="11"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="9"/>
-      <c r="G53" s="10"/>
-      <c r="H53" s="4"/>
+        <v>172</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="E53" s="10">
+        <v>13.57</v>
+      </c>
+      <c r="F53" s="9">
+        <v>2</v>
+      </c>
+      <c r="G53" s="10">
+        <f t="shared" si="3"/>
+        <v>27.14</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B54" s="8"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="11"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="9"/>
-      <c r="G54" s="10"/>
-      <c r="H54" s="4"/>
+      <c r="B54" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="E54" s="10">
+        <v>14.68</v>
+      </c>
+      <c r="F54" s="9">
+        <v>2</v>
+      </c>
+      <c r="G54" s="10">
+        <f t="shared" si="3"/>
+        <v>29.36</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B55" s="20"/>
@@ -2365,8 +2431,11 @@
     <hyperlink ref="H48" r:id="rId33" xr:uid="{68C87FBD-315D-4D2B-BA53-B60E11432DC6}"/>
     <hyperlink ref="H35" r:id="rId34" xr:uid="{F2D2CBB0-73A5-4D87-8FF0-E76A17D41BDD}"/>
     <hyperlink ref="H16" r:id="rId35" xr:uid="{CF21FA46-6577-4015-A9D8-2C1F05535812}"/>
+    <hyperlink ref="H51" r:id="rId36" xr:uid="{DE493F4D-E7F5-4C91-B313-97A209FB5F99}"/>
+    <hyperlink ref="H53" r:id="rId37" xr:uid="{14FB9BAA-D1EA-4648-B385-13350A105182}"/>
+    <hyperlink ref="H54" r:id="rId38" xr:uid="{84DC7C70-C2FB-4487-B827-638F3E52FD58}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId36"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId39"/>
 </worksheet>
 </file>
--- a/docs/shopping_list.xlsx
+++ b/docs/shopping_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\_GitHub_repo\project-TWT-jetting-grid\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A42230-3245-4554-87A2-8F79B7F1D917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36CC9BD1-AA99-4784-896F-C349C26A79A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6218" yWindow="4650" windowWidth="17932" windowHeight="10133" xr2:uid="{6ACBF970-17D1-4E70-A647-E338031FE07A}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="26311" windowHeight="16395" xr2:uid="{6ACBF970-17D1-4E70-A647-E338031FE07A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="190">
   <si>
     <t>https://www.omega.nl/pptst/PXM309.html</t>
   </si>
@@ -581,6 +581,42 @@
   </si>
   <si>
     <t>https://nl.farnell.com/alpha-wire/3051-bk005/wire-blk-22awg-7-30awg-30-5m/dp/2290872</t>
+  </si>
+  <si>
+    <t>Multicomp Pro MC000958</t>
+  </si>
+  <si>
+    <t>https://nl.farnell.com/multicomp/mc000958/connector-d-sub-plug-9pos-panel/dp/2473037</t>
+  </si>
+  <si>
+    <t>Multicomp Pro MC000969</t>
+  </si>
+  <si>
+    <t>https://nl.farnell.com/multicomp/mc000969/conn-assembly-d-sub-rcpt-9pos/dp/2473043</t>
+  </si>
+  <si>
+    <t>Multicomp Pro MC000970</t>
+  </si>
+  <si>
+    <t>https://nl.farnell.com/multicomp/mc000970/conn-assembly-d-sub-plug-9pos/dp/2473044</t>
+  </si>
+  <si>
+    <t>DB9 panel mount connector, male</t>
+  </si>
+  <si>
+    <t>DB9 panel mount connector, female</t>
+  </si>
+  <si>
+    <t>DB9 cable connector, female</t>
+  </si>
+  <si>
+    <t>DB9 cable connector, male</t>
+  </si>
+  <si>
+    <t>Multicomp Pro MC000961</t>
+  </si>
+  <si>
+    <t>https://nl.farnell.com/multicomp/mc000961/connector-d-sub-rcpt-9pos-panel/dp/2473038</t>
   </si>
 </sst>
 </file>
@@ -1035,10 +1071,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EABDC01-B8C9-4DFC-A32F-D1F25B52CF32}">
-  <dimension ref="A1:I59"/>
+  <dimension ref="A1:I63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1601,7 +1637,7 @@
         <v>8</v>
       </c>
       <c r="G25" s="14">
-        <f t="shared" ref="G25:G58" si="3">E25*F25</f>
+        <f t="shared" ref="G25:G62" si="3">E25*F25</f>
         <v>112</v>
       </c>
       <c r="H25" s="4" t="s">
@@ -2211,22 +2247,22 @@
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B51" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="C51" s="9" t="s">
+      <c r="B51" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C51" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="D51" s="11" t="s">
+      <c r="D51" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="E51" s="10">
+      <c r="E51" s="14">
         <v>0.6</v>
       </c>
-      <c r="F51" s="9">
+      <c r="F51" s="13">
         <v>30</v>
       </c>
-      <c r="G51" s="10">
+      <c r="G51" s="14">
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
@@ -2235,22 +2271,22 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B52" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="C52" s="9" t="s">
+      <c r="B52" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C52" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="D52" s="11" t="s">
+      <c r="D52" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="E52" s="10">
+      <c r="E52" s="14">
         <v>0.8</v>
       </c>
-      <c r="F52" s="9">
+      <c r="F52" s="13">
         <v>300</v>
       </c>
-      <c r="G52" s="10">
+      <c r="G52" s="14">
         <f t="shared" si="3"/>
         <v>240</v>
       </c>
@@ -2259,22 +2295,22 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B53" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="C53" s="9" t="s">
+      <c r="B53" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C53" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="D53" s="11" t="s">
+      <c r="D53" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="E53" s="10">
+      <c r="E53" s="14">
         <v>13.57</v>
       </c>
-      <c r="F53" s="9">
+      <c r="F53" s="13">
         <v>2</v>
       </c>
-      <c r="G53" s="10">
+      <c r="G53" s="14">
         <f t="shared" si="3"/>
         <v>27.14</v>
       </c>
@@ -2283,22 +2319,22 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B54" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="C54" s="9" t="s">
+      <c r="B54" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C54" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="D54" s="11" t="s">
+      <c r="D54" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="E54" s="10">
+      <c r="E54" s="14">
         <v>14.68</v>
       </c>
-      <c r="F54" s="9">
+      <c r="F54" s="13">
         <v>2</v>
       </c>
-      <c r="G54" s="10">
+      <c r="G54" s="14">
         <f t="shared" si="3"/>
         <v>29.36</v>
       </c>
@@ -2307,42 +2343,75 @@
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B55" s="20"/>
-      <c r="C55" s="19"/>
-      <c r="D55" s="25"/>
-      <c r="E55" s="21"/>
-      <c r="F55" s="19"/>
-      <c r="G55" s="21"/>
-      <c r="H55" s="4"/>
+      <c r="B55" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="D55" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="E55" s="14">
+        <v>6.12</v>
+      </c>
+      <c r="F55" s="13">
+        <v>1</v>
+      </c>
+      <c r="G55" s="14">
+        <f t="shared" si="3"/>
+        <v>6.12</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="H56" s="4"/>
+      <c r="B56" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="D56" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="E56" s="14">
+        <v>7.29</v>
+      </c>
+      <c r="F56" s="13">
+        <v>1</v>
+      </c>
+      <c r="G56" s="14">
+        <f t="shared" si="3"/>
+        <v>7.29</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A57" s="7" t="s">
-        <v>47</v>
-      </c>
       <c r="B57" s="12" t="s">
         <v>40</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>93</v>
+        <v>186</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>94</v>
+        <v>180</v>
       </c>
       <c r="E57" s="14">
-        <v>318.16000000000003</v>
+        <v>7.73</v>
       </c>
       <c r="F57" s="13">
         <v>1</v>
       </c>
       <c r="G57" s="14">
-        <f>E57*F57</f>
-        <v>318.16000000000003</v>
-      </c>
-      <c r="H57" s="22" t="s">
-        <v>95</v>
+        <f t="shared" si="3"/>
+        <v>7.73</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.45">
@@ -2350,46 +2419,109 @@
         <v>40</v>
       </c>
       <c r="C58" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="D58" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="E58" s="14">
+        <v>9.24</v>
+      </c>
+      <c r="F58" s="13">
+        <v>1</v>
+      </c>
+      <c r="G58" s="14">
+        <f t="shared" si="3"/>
+        <v>9.24</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B59" s="20"/>
+      <c r="C59" s="19"/>
+      <c r="D59" s="25"/>
+      <c r="E59" s="21"/>
+      <c r="F59" s="19"/>
+      <c r="G59" s="21"/>
+      <c r="H59" s="4"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="H60" s="4"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A61" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B61" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C61" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D61" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E61" s="14">
+        <v>318.16000000000003</v>
+      </c>
+      <c r="F61" s="13">
+        <v>1</v>
+      </c>
+      <c r="G61" s="14">
+        <f>E61*F61</f>
+        <v>318.16000000000003</v>
+      </c>
+      <c r="H61" s="22" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B62" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C62" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="D58" s="13" t="s">
+      <c r="D62" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="E58" s="14">
+      <c r="E62" s="14">
         <v>28.5</v>
       </c>
-      <c r="F58" s="13">
-        <v>1</v>
-      </c>
-      <c r="G58" s="14">
+      <c r="F62" s="13">
+        <v>1</v>
+      </c>
+      <c r="G62" s="14">
         <f t="shared" si="3"/>
         <v>28.5</v>
       </c>
-      <c r="H58" s="4" t="s">
+      <c r="H62" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B59" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C59" s="13" t="s">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B63" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C63" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="D59" s="17" t="s">
+      <c r="D63" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="E59" s="14">
+      <c r="E63" s="14">
         <v>9.83</v>
       </c>
-      <c r="F59" s="13">
+      <c r="F63" s="13">
         <v>3</v>
       </c>
-      <c r="G59" s="14">
-        <f>E59*F59</f>
+      <c r="G63" s="14">
+        <f>E63*F63</f>
         <v>29.490000000000002</v>
       </c>
-      <c r="H59" s="4" t="s">
+      <c r="H63" s="4" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2413,8 +2545,8 @@
     <hyperlink ref="H15" r:id="rId15" xr:uid="{9CE1B218-A51B-4D74-8E60-BC48A6732159}"/>
     <hyperlink ref="H29" r:id="rId16" xr:uid="{21139B33-0F0B-40A6-A529-31ED4FA41410}"/>
     <hyperlink ref="H33" r:id="rId17" xr:uid="{2FB12F3E-2615-4CE9-857F-9A7A5B1D9736}"/>
-    <hyperlink ref="H59" r:id="rId18" xr:uid="{F2F7E969-5D11-4304-BC12-98AF6A6F8DB8}"/>
-    <hyperlink ref="H58" r:id="rId19" xr:uid="{BC166A5C-E799-4B24-8CD9-D0CFD834F7A9}"/>
+    <hyperlink ref="H63" r:id="rId18" xr:uid="{F2F7E969-5D11-4304-BC12-98AF6A6F8DB8}"/>
+    <hyperlink ref="H62" r:id="rId19" xr:uid="{BC166A5C-E799-4B24-8CD9-D0CFD834F7A9}"/>
     <hyperlink ref="H31" r:id="rId20" xr:uid="{CA7C0345-0A84-4520-B968-21F94DB74B6F}"/>
     <hyperlink ref="H32" r:id="rId21" xr:uid="{98E0B643-0B27-4820-9B32-2ED486935FC0}"/>
     <hyperlink ref="H18" r:id="rId22" xr:uid="{BCE8848E-1B0B-40B8-A1F5-1B128E2593DD}"/>
@@ -2434,8 +2566,10 @@
     <hyperlink ref="H51" r:id="rId36" xr:uid="{DE493F4D-E7F5-4C91-B313-97A209FB5F99}"/>
     <hyperlink ref="H53" r:id="rId37" xr:uid="{14FB9BAA-D1EA-4648-B385-13350A105182}"/>
     <hyperlink ref="H54" r:id="rId38" xr:uid="{84DC7C70-C2FB-4487-B827-638F3E52FD58}"/>
+    <hyperlink ref="H55" r:id="rId39" xr:uid="{6B74AA20-237E-4762-BD61-F6A9DD0FFC4B}"/>
+    <hyperlink ref="H58" r:id="rId40" xr:uid="{41943B38-D351-40C0-AA17-CCC4C8FFADEF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId39"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId41"/>
 </worksheet>
 </file>
--- a/docs/shopping_list.xlsx
+++ b/docs/shopping_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\_GitHub_repo\project-TWT-jetting-grid\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36CC9BD1-AA99-4784-896F-C349C26A79A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D746B3C4-9C4B-4271-8969-B1F449CD9E30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="26311" windowHeight="16395" xr2:uid="{6ACBF970-17D1-4E70-A647-E338031FE07A}"/>
   </bookViews>
@@ -1073,8 +1073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EABDC01-B8C9-4DFC-A32F-D1F25B52CF32}">
   <dimension ref="A1:I63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1911,22 +1911,22 @@
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B37" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="C37" s="9" t="s">
+      <c r="B37" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="D37" s="11" t="s">
+      <c r="D37" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="E37" s="10">
+      <c r="E37" s="14">
         <v>16.7</v>
       </c>
-      <c r="F37" s="9">
-        <v>1</v>
-      </c>
-      <c r="G37" s="10">
+      <c r="F37" s="13">
+        <v>1</v>
+      </c>
+      <c r="G37" s="14">
         <f t="shared" si="3"/>
         <v>16.7</v>
       </c>

--- a/docs/shopping_list.xlsx
+++ b/docs/shopping_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\_GitHub_repo\project-TWT-jetting-grid\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5CEDE10-0827-43CB-9A2C-15021FA1C532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB512249-E14E-432E-8687-51475474EAA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11287" yWindow="1770" windowWidth="8183" windowHeight="3450" xr2:uid="{6ACBF970-17D1-4E70-A647-E338031FE07A}"/>
   </bookViews>
@@ -1117,7 +1117,7 @@
   <dimension ref="A1:I68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/docs/shopping_list.xlsx
+++ b/docs/shopping_list.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\_GitHub_repo\project-TWT-jetting-grid\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB512249-E14E-432E-8687-51475474EAA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF82EDF7-A1DF-4EDE-BE3F-B01DD0BA16A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11287" yWindow="1770" windowWidth="8183" windowHeight="3450" xr2:uid="{6ACBF970-17D1-4E70-A647-E338031FE07A}"/>
+    <workbookView xWindow="1860" yWindow="7212" windowWidth="23136" windowHeight="10524" xr2:uid="{6ACBF970-17D1-4E70-A647-E338031FE07A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$H$68</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$H$67</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="198">
   <si>
     <t>https://www.omega.nl/pptst/PXM309.html</t>
   </si>
@@ -631,12 +631,6 @@
     <t>Non-latching relay for Adafruit Feather</t>
   </si>
   <si>
-    <t>Seeed Studio 103020005</t>
-  </si>
-  <si>
-    <t>Grove Relay</t>
-  </si>
-  <si>
     <t>Main electronics</t>
   </si>
   <si>
@@ -647,9 +641,6 @@
   </si>
   <si>
     <t>https://nl.rs-online.com/web/p/power-motor-robotics-development-tools/1245530</t>
-  </si>
-  <si>
-    <t>https://nl.rs-online.com/web/p/power-motor-robotics-development-tools/1743243</t>
   </si>
   <si>
     <t>OFI: 30912301, PROJECT: 20001599-10</t>
@@ -1114,34 +1105,34 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I68"/>
+  <dimension ref="A1:I67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:XFD21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.1328125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="36.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="36.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.1328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.33203125" customWidth="1"/>
     <col min="7" max="7" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="78.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="33.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="23"/>
     </row>
-    <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>39</v>
       </c>
@@ -1167,7 +1158,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>70</v>
       </c>
@@ -1198,15 +1189,15 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B5" s="5"/>
       <c r="E5" s="3"/>
       <c r="G5" s="3"/>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>40</v>
@@ -1231,7 +1222,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B7" s="12" t="s">
         <v>40</v>
       </c>
@@ -1255,7 +1246,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B8" s="12" t="s">
         <v>40</v>
       </c>
@@ -1279,7 +1270,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B9" s="12" t="s">
         <v>40</v>
       </c>
@@ -1306,7 +1297,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B10" s="12" t="s">
         <v>40</v>
       </c>
@@ -1333,7 +1324,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>40</v>
       </c>
@@ -1357,7 +1348,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>40</v>
       </c>
@@ -1384,7 +1375,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>40</v>
       </c>
@@ -1411,7 +1402,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
         <v>40</v>
       </c>
@@ -1438,7 +1429,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>40</v>
       </c>
@@ -1462,7 +1453,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B16" s="12" t="s">
         <v>40</v>
       </c>
@@ -1486,14 +1477,14 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B17" s="20"/>
       <c r="D17" s="27"/>
       <c r="E17" s="21"/>
       <c r="G17" s="21"/>
       <c r="H17" s="28"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>186</v>
       </c>
@@ -1517,10 +1508,10 @@
         <v>22.72</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
       <c r="B19" s="12" t="s">
         <v>40</v>
@@ -1542,10 +1533,10 @@
         <v>8.5500000000000007</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
       <c r="B20" s="12" t="s">
         <v>40</v>
@@ -1567,536 +1558,535 @@
         <v>9.07</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A21" s="7"/>
-      <c r="B21" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="E21" s="14">
-        <v>3.37</v>
-      </c>
-      <c r="F21" s="13">
-        <v>1</v>
-      </c>
-      <c r="G21" s="14">
-        <f>E21*F21</f>
-        <v>3.37</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B22" s="20"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="4"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A23" s="7" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B21" s="20"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="4"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
         <v>113</v>
       </c>
+      <c r="B22" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="E22" s="14">
+        <v>25.61</v>
+      </c>
+      <c r="F22" s="13">
+        <v>1</v>
+      </c>
+      <c r="G22" s="14">
+        <f>E22*F22</f>
+        <v>25.61</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>40</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="E23" s="14">
-        <v>25.61</v>
+        <v>21</v>
       </c>
       <c r="F23" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G23" s="14">
         <f>E23*F23</f>
-        <v>25.61</v>
+        <v>42</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B24" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="7"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="24" t="s">
+        <v>122</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="E24" s="14">
-        <v>21</v>
-      </c>
-      <c r="F24" s="13">
-        <v>2</v>
-      </c>
-      <c r="G24" s="14">
-        <f>E24*F24</f>
-        <v>42</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="E24" s="14"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="14"/>
       <c r="H24" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A25" s="7"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="24" t="s">
-        <v>122</v>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B25" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>114</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="E25" s="14"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="14"/>
+        <v>115</v>
+      </c>
+      <c r="E25" s="14">
+        <v>0.82</v>
+      </c>
+      <c r="F25" s="13">
+        <v>20</v>
+      </c>
+      <c r="G25" s="14">
+        <f>E25*F25</f>
+        <v>16.399999999999999</v>
+      </c>
       <c r="H25" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B26" s="12" t="s">
         <v>40</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E26" s="14">
-        <v>0.82</v>
+        <v>0.12</v>
       </c>
       <c r="F26" s="13">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G26" s="14">
         <f>E26*F26</f>
-        <v>16.399999999999999</v>
+        <v>3.5999999999999996</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="7"/>
       <c r="B27" s="12" t="s">
         <v>40</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="E27" s="14">
-        <v>0.12</v>
+        <v>0.22</v>
       </c>
       <c r="F27" s="13">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G27" s="14">
         <f>E27*F27</f>
-        <v>3.5999999999999996</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A28" s="7"/>
-      <c r="B28" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="E28" s="14">
-        <v>0.22</v>
-      </c>
-      <c r="F28" s="13">
-        <v>10</v>
-      </c>
-      <c r="G28" s="14">
-        <f>E28*F28</f>
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="H28" s="4" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="H29" s="4"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A30" s="7" t="s">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H28" s="4"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B30" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C30" s="17" t="s">
+      <c r="B29" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="17" t="s">
         <v>14</v>
       </c>
+      <c r="D29" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="14">
+        <v>14</v>
+      </c>
+      <c r="F29" s="13">
+        <v>8</v>
+      </c>
+      <c r="G29" s="14">
+        <f t="shared" ref="G29:G66" si="3">E29*F29</f>
+        <v>112</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B30" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="D30" s="13" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E30" s="14">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="F30" s="13">
         <v>8</v>
       </c>
       <c r="G30" s="14">
-        <f t="shared" ref="G30:G67" si="3">E30*F30</f>
-        <v>112</v>
+        <f t="shared" si="3"/>
+        <v>280</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B31" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B31" s="26" t="s">
         <v>40</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E31" s="14">
-        <v>35</v>
+        <v>7.4</v>
       </c>
       <c r="F31" s="13">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="G31" s="14">
         <f t="shared" si="3"/>
-        <v>280</v>
+        <v>414.40000000000003</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B32" s="26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B32" s="12" t="s">
         <v>40</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E32" s="14">
-        <v>7.4</v>
+        <v>10.7</v>
       </c>
       <c r="F32" s="13">
         <v>56</v>
       </c>
       <c r="G32" s="14">
         <f t="shared" si="3"/>
-        <v>414.40000000000003</v>
+        <v>599.19999999999993</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="12" t="s">
         <v>40</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E33" s="14">
-        <v>10.7</v>
+        <v>243.8</v>
       </c>
       <c r="F33" s="13">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="G33" s="14">
-        <f t="shared" si="3"/>
-        <v>599.19999999999993</v>
+        <v>243.8</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.45">
+        <v>72</v>
+      </c>
+      <c r="I33" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="12" t="s">
         <v>40</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>21</v>
+        <v>52</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>54</v>
       </c>
       <c r="E34" s="14">
-        <v>243.8</v>
+        <v>15</v>
       </c>
       <c r="F34" s="13">
         <v>1</v>
       </c>
       <c r="G34" s="14">
-        <v>243.8</v>
+        <f>E34*F34</f>
+        <v>15</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="I34" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.45">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="12" t="s">
         <v>40</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="E35" s="14">
-        <v>15</v>
+        <v>2.34</v>
       </c>
       <c r="F35" s="13">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G35" s="14">
-        <f>E35*F35</f>
-        <v>15</v>
+        <f t="shared" si="3"/>
+        <v>23.4</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.45">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="12" t="s">
         <v>40</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="E36" s="14">
-        <v>2.34</v>
+        <v>49.14</v>
       </c>
       <c r="F36" s="13">
+        <v>1</v>
+      </c>
+      <c r="G36" s="14">
+        <f t="shared" si="3"/>
+        <v>49.14</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B37" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="E37" s="14">
+        <v>82.12</v>
+      </c>
+      <c r="F37" s="13">
+        <v>1</v>
+      </c>
+      <c r="G37" s="14">
+        <f t="shared" si="3"/>
+        <v>82.12</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B38" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="E38" s="14">
+        <v>16.25</v>
+      </c>
+      <c r="F38" s="13">
+        <v>1</v>
+      </c>
+      <c r="G38" s="14">
+        <f t="shared" si="3"/>
+        <v>16.25</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B39" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="E39" s="14">
+        <v>1.27</v>
+      </c>
+      <c r="F39" s="13">
+        <v>2</v>
+      </c>
+      <c r="G39" s="14">
+        <f t="shared" si="3"/>
+        <v>2.54</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B40" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="E40" s="10">
+        <v>20.63</v>
+      </c>
+      <c r="F40" s="9">
+        <v>1</v>
+      </c>
+      <c r="G40" s="10">
+        <f t="shared" si="3"/>
+        <v>20.63</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B41" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="E41" s="14">
+        <v>16.7</v>
+      </c>
+      <c r="F41" s="13">
+        <v>1</v>
+      </c>
+      <c r="G41" s="14">
+        <f t="shared" si="3"/>
+        <v>16.7</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B42" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E42" s="14">
+        <v>2.59</v>
+      </c>
+      <c r="F42" s="13">
         <v>10</v>
       </c>
-      <c r="G36" s="14">
-        <f t="shared" si="3"/>
-        <v>23.4</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B37" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C37" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="D37" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E37" s="14">
-        <v>49.14</v>
-      </c>
-      <c r="F37" s="13">
-        <v>1</v>
-      </c>
-      <c r="G37" s="14">
-        <f t="shared" si="3"/>
-        <v>49.14</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B38" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="D38" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="E38" s="14">
-        <v>82.12</v>
-      </c>
-      <c r="F38" s="13">
-        <v>1</v>
-      </c>
-      <c r="G38" s="14">
-        <f t="shared" si="3"/>
-        <v>82.12</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B39" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C39" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="D39" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="E39" s="14">
-        <v>16.25</v>
-      </c>
-      <c r="F39" s="13">
-        <v>1</v>
-      </c>
-      <c r="G39" s="14">
-        <f t="shared" si="3"/>
-        <v>16.25</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B40" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C40" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="D40" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="E40" s="14">
-        <v>1.27</v>
-      </c>
-      <c r="F40" s="13">
-        <v>2</v>
-      </c>
-      <c r="G40" s="14">
-        <f t="shared" si="3"/>
-        <v>2.54</v>
-      </c>
-      <c r="H40" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B41" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="D41" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="E41" s="10">
-        <v>20.63</v>
-      </c>
-      <c r="F41" s="9">
-        <v>1</v>
-      </c>
-      <c r="G41" s="10">
-        <f t="shared" si="3"/>
-        <v>20.63</v>
-      </c>
-      <c r="H41" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B42" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C42" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="D42" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="E42" s="14">
-        <v>16.7</v>
-      </c>
-      <c r="F42" s="13">
-        <v>1</v>
-      </c>
       <c r="G42" s="14">
         <f t="shared" si="3"/>
-        <v>16.7</v>
+        <v>25.9</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.45">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="12" t="s">
         <v>40</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E43" s="14">
-        <v>2.59</v>
+        <v>2.6</v>
       </c>
       <c r="F43" s="13">
         <v>10</v>
       </c>
       <c r="G43" s="14">
         <f t="shared" si="3"/>
-        <v>25.9</v>
+        <v>26</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.45">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="12" t="s">
         <v>40</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E44" s="14">
         <v>2.6</v>
@@ -2109,549 +2099,525 @@
         <v>26</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.45">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="12" t="s">
         <v>40</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E45" s="14">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="F45" s="13">
         <v>10</v>
       </c>
       <c r="G45" s="14">
         <f t="shared" si="3"/>
-        <v>26</v>
+        <v>27.5</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.45">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="12" t="s">
         <v>40</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="E46" s="14">
-        <v>2.75</v>
+        <v>0.38</v>
       </c>
       <c r="F46" s="13">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G46" s="14">
         <f t="shared" si="3"/>
-        <v>27.5</v>
+        <v>19</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.45">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="12" t="s">
         <v>40</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="E47" s="14">
-        <v>0.38</v>
+        <v>7.62</v>
       </c>
       <c r="F47" s="13">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="G47" s="14">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>7.62</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.45">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="12" t="s">
         <v>40</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E48" s="14">
-        <v>7.62</v>
+        <v>9.07</v>
       </c>
       <c r="F48" s="13">
         <v>1</v>
       </c>
       <c r="G48" s="14">
         <f t="shared" si="3"/>
-        <v>7.62</v>
+        <v>9.07</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.45">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B49" s="12" t="s">
         <v>40</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E49" s="14">
-        <v>9.07</v>
+        <v>9.25</v>
       </c>
       <c r="F49" s="13">
         <v>1</v>
       </c>
       <c r="G49" s="14">
         <f t="shared" si="3"/>
-        <v>9.07</v>
+        <v>9.25</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.45">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B50" s="12" t="s">
         <v>40</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E50" s="14">
-        <v>9.25</v>
+        <v>14.17</v>
       </c>
       <c r="F50" s="13">
         <v>1</v>
       </c>
       <c r="G50" s="14">
         <f t="shared" si="3"/>
-        <v>9.25</v>
+        <v>14.17</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.45">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B51" s="12" t="s">
         <v>40</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E51" s="14">
-        <v>14.17</v>
+        <v>8.51</v>
       </c>
       <c r="F51" s="13">
         <v>1</v>
       </c>
       <c r="G51" s="14">
         <f t="shared" si="3"/>
-        <v>14.17</v>
+        <v>8.51</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.45">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B52" s="12" t="s">
         <v>40</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E52" s="14">
-        <v>8.51</v>
+        <v>6.41</v>
       </c>
       <c r="F52" s="13">
         <v>1</v>
       </c>
       <c r="G52" s="14">
         <f t="shared" si="3"/>
-        <v>8.51</v>
+        <v>6.41</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.45">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B53" s="12" t="s">
         <v>40</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E53" s="14">
-        <v>6.41</v>
+        <v>15.47</v>
       </c>
       <c r="F53" s="13">
         <v>1</v>
       </c>
       <c r="G53" s="14">
         <f t="shared" si="3"/>
-        <v>6.41</v>
+        <v>15.47</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.45">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B54" s="12" t="s">
         <v>40</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E54" s="14">
-        <v>15.47</v>
+        <v>28.96</v>
       </c>
       <c r="F54" s="13">
         <v>1</v>
       </c>
       <c r="G54" s="14">
         <f t="shared" si="3"/>
-        <v>15.47</v>
+        <v>28.96</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.45">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B55" s="12" t="s">
         <v>40</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="E55" s="14">
-        <v>28.96</v>
+        <v>0.6</v>
       </c>
       <c r="F55" s="13">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="G55" s="14">
         <f t="shared" si="3"/>
-        <v>28.96</v>
+        <v>18</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.45">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B56" s="12" t="s">
         <v>40</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E56" s="14">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="F56" s="13">
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="G56" s="14">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>240</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.45">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B57" s="12" t="s">
         <v>40</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="E57" s="14">
-        <v>0.8</v>
+        <v>13.57</v>
       </c>
       <c r="F57" s="13">
-        <v>300</v>
+        <v>2</v>
       </c>
       <c r="G57" s="14">
         <f t="shared" si="3"/>
-        <v>240</v>
+        <v>27.14</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.45">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B58" s="12" t="s">
         <v>40</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E58" s="14">
-        <v>13.57</v>
+        <v>14.68</v>
       </c>
       <c r="F58" s="13">
         <v>2</v>
       </c>
       <c r="G58" s="14">
         <f t="shared" si="3"/>
-        <v>27.14</v>
+        <v>29.36</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.45">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B59" s="12" t="s">
         <v>40</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E59" s="14">
-        <v>14.68</v>
+        <v>6.12</v>
       </c>
       <c r="F59" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G59" s="14">
         <f t="shared" si="3"/>
-        <v>29.36</v>
+        <v>6.12</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.45">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B60" s="12" t="s">
         <v>40</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="E60" s="14">
-        <v>6.12</v>
+        <v>7.29</v>
       </c>
       <c r="F60" s="13">
         <v>1</v>
       </c>
       <c r="G60" s="14">
         <f t="shared" si="3"/>
-        <v>6.12</v>
+        <v>7.29</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.45">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B61" s="12" t="s">
         <v>40</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="E61" s="14">
-        <v>7.29</v>
+        <v>7.73</v>
       </c>
       <c r="F61" s="13">
         <v>1</v>
       </c>
       <c r="G61" s="14">
         <f t="shared" si="3"/>
-        <v>7.29</v>
+        <v>7.73</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.45">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B62" s="12" t="s">
         <v>40</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E62" s="14">
-        <v>7.73</v>
+        <v>9.24</v>
       </c>
       <c r="F62" s="13">
         <v>1</v>
       </c>
       <c r="G62" s="14">
         <f t="shared" si="3"/>
-        <v>7.73</v>
+        <v>9.24</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B63" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C63" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="D63" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="E63" s="14">
-        <v>9.24</v>
-      </c>
-      <c r="F63" s="13">
-        <v>1</v>
-      </c>
-      <c r="G63" s="14">
-        <f t="shared" si="3"/>
-        <v>9.24</v>
-      </c>
-      <c r="H63" s="4" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B64" s="20"/>
-      <c r="C64" s="19"/>
-      <c r="D64" s="25"/>
-      <c r="E64" s="21"/>
-      <c r="F64" s="19"/>
-      <c r="G64" s="21"/>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B63" s="20"/>
+      <c r="C63" s="19"/>
+      <c r="D63" s="25"/>
+      <c r="E63" s="21"/>
+      <c r="F63" s="19"/>
+      <c r="G63" s="21"/>
+      <c r="H63" s="4"/>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.3">
       <c r="H64" s="4"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="H65" s="4"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A66" s="7" t="s">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65" s="7" t="s">
         <v>45</v>
       </c>
+      <c r="B65" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C65" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D65" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="E65" s="14">
+        <v>318.16000000000003</v>
+      </c>
+      <c r="F65" s="13">
+        <v>1</v>
+      </c>
+      <c r="G65" s="14">
+        <f>E65*F65</f>
+        <v>318.16000000000003</v>
+      </c>
+      <c r="H65" s="22" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B66" s="12" t="s">
         <v>40</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="D66" s="17" t="s">
-        <v>92</v>
+        <v>109</v>
+      </c>
+      <c r="D66" s="13" t="s">
+        <v>83</v>
       </c>
       <c r="E66" s="14">
-        <v>318.16000000000003</v>
+        <v>28.5</v>
       </c>
       <c r="F66" s="13">
         <v>1</v>
       </c>
       <c r="G66" s="14">
-        <f>E66*F66</f>
-        <v>318.16000000000003</v>
-      </c>
-      <c r="H66" s="22" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.45">
+        <f t="shared" si="3"/>
+        <v>28.5</v>
+      </c>
+      <c r="H66" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B67" s="12" t="s">
         <v>40</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="D67" s="13" t="s">
-        <v>83</v>
+        <v>81</v>
+      </c>
+      <c r="D67" s="17" t="s">
+        <v>80</v>
       </c>
       <c r="E67" s="14">
-        <v>28.5</v>
+        <v>9.83</v>
       </c>
       <c r="F67" s="13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G67" s="14">
-        <f t="shared" si="3"/>
-        <v>28.5</v>
+        <f>E67*F67</f>
+        <v>29.490000000000002</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B68" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C68" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="D68" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="E68" s="14">
-        <v>9.83</v>
-      </c>
-      <c r="F68" s="13">
-        <v>3</v>
-      </c>
-      <c r="G68" s="14">
-        <f>E68*F68</f>
-        <v>29.490000000000002</v>
-      </c>
-      <c r="H68" s="4" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2661,45 +2627,44 @@
     <hyperlink ref="H9" r:id="rId1" xr:uid="{A64CAE9B-1807-408A-9730-9DF7343D63C0}"/>
     <hyperlink ref="H10" r:id="rId2" xr:uid="{B4173ABE-0E2E-4491-91E5-AA6F3B68F059}"/>
     <hyperlink ref="H11" r:id="rId3" xr:uid="{F7ACD48F-A269-40D8-BF7B-22E66F64BC82}"/>
-    <hyperlink ref="H31" r:id="rId4" xr:uid="{F6FBD8A3-C34C-4E27-AC60-0FD82F392FBC}"/>
-    <hyperlink ref="H30" r:id="rId5" xr:uid="{36E03E41-1F6C-4A85-A49E-3B2E800C7979}"/>
-    <hyperlink ref="H32" r:id="rId6" xr:uid="{37641EC4-3B22-4ED5-8852-D01C205DEB09}"/>
+    <hyperlink ref="H30" r:id="rId4" xr:uid="{F6FBD8A3-C34C-4E27-AC60-0FD82F392FBC}"/>
+    <hyperlink ref="H29" r:id="rId5" xr:uid="{36E03E41-1F6C-4A85-A49E-3B2E800C7979}"/>
+    <hyperlink ref="H31" r:id="rId6" xr:uid="{37641EC4-3B22-4ED5-8852-D01C205DEB09}"/>
     <hyperlink ref="H8" r:id="rId7" xr:uid="{94EA38E1-188B-4B90-8740-9CE54976206B}"/>
     <hyperlink ref="H4" r:id="rId8" xr:uid="{C124242C-A1BD-4116-9B70-6ACA545A16EB}"/>
     <hyperlink ref="H6" r:id="rId9" xr:uid="{D567AB98-A94E-488A-9D8F-F77570B5F0E2}"/>
-    <hyperlink ref="H33" r:id="rId10" xr:uid="{C27F2911-500D-41BD-A6F3-5348A5B530C9}"/>
+    <hyperlink ref="H32" r:id="rId10" xr:uid="{C27F2911-500D-41BD-A6F3-5348A5B530C9}"/>
     <hyperlink ref="H14" r:id="rId11" xr:uid="{2C5C7988-C77A-4770-8AA2-B23B55E29CBF}"/>
     <hyperlink ref="H13" r:id="rId12" xr:uid="{22278761-7B55-4BAE-BB95-F178E7D7274C}"/>
     <hyperlink ref="H12" r:id="rId13" xr:uid="{DC06FE0D-1B92-45BE-9F17-45555A1E25AE}"/>
-    <hyperlink ref="H35" r:id="rId14" xr:uid="{B64B3EEF-A8DB-4639-8B3D-02528969B7A4}"/>
+    <hyperlink ref="H34" r:id="rId14" xr:uid="{B64B3EEF-A8DB-4639-8B3D-02528969B7A4}"/>
     <hyperlink ref="H16" r:id="rId15" xr:uid="{9CE1B218-A51B-4D74-8E60-BC48A6732159}"/>
-    <hyperlink ref="H34" r:id="rId16" xr:uid="{21139B33-0F0B-40A6-A529-31ED4FA41410}"/>
-    <hyperlink ref="H38" r:id="rId17" xr:uid="{2FB12F3E-2615-4CE9-857F-9A7A5B1D9736}"/>
-    <hyperlink ref="H68" r:id="rId18" xr:uid="{F2F7E969-5D11-4304-BC12-98AF6A6F8DB8}"/>
-    <hyperlink ref="H67" r:id="rId19" xr:uid="{BC166A5C-E799-4B24-8CD9-D0CFD834F7A9}"/>
-    <hyperlink ref="H36" r:id="rId20" xr:uid="{CA7C0345-0A84-4520-B968-21F94DB74B6F}"/>
-    <hyperlink ref="H37" r:id="rId21" xr:uid="{98E0B643-0B27-4820-9B32-2ED486935FC0}"/>
-    <hyperlink ref="H23" r:id="rId22" xr:uid="{BCE8848E-1B0B-40B8-A1F5-1B128E2593DD}"/>
-    <hyperlink ref="H24" r:id="rId23" xr:uid="{199DA21A-E359-4CB4-ADF2-1F282FAA3324}"/>
-    <hyperlink ref="H27" r:id="rId24" xr:uid="{5433A4AE-4217-4EE7-930C-A0E613EE6AA3}"/>
-    <hyperlink ref="H25" r:id="rId25" xr:uid="{ED7DC865-0754-4677-BBE5-BF4AF851177F}"/>
-    <hyperlink ref="H28" r:id="rId26" xr:uid="{84A0CCC1-A592-4931-A941-E5326C8FC464}"/>
+    <hyperlink ref="H33" r:id="rId16" xr:uid="{21139B33-0F0B-40A6-A529-31ED4FA41410}"/>
+    <hyperlink ref="H37" r:id="rId17" xr:uid="{2FB12F3E-2615-4CE9-857F-9A7A5B1D9736}"/>
+    <hyperlink ref="H67" r:id="rId18" xr:uid="{F2F7E969-5D11-4304-BC12-98AF6A6F8DB8}"/>
+    <hyperlink ref="H66" r:id="rId19" xr:uid="{BC166A5C-E799-4B24-8CD9-D0CFD834F7A9}"/>
+    <hyperlink ref="H35" r:id="rId20" xr:uid="{CA7C0345-0A84-4520-B968-21F94DB74B6F}"/>
+    <hyperlink ref="H36" r:id="rId21" xr:uid="{98E0B643-0B27-4820-9B32-2ED486935FC0}"/>
+    <hyperlink ref="H22" r:id="rId22" xr:uid="{BCE8848E-1B0B-40B8-A1F5-1B128E2593DD}"/>
+    <hyperlink ref="H23" r:id="rId23" xr:uid="{199DA21A-E359-4CB4-ADF2-1F282FAA3324}"/>
+    <hyperlink ref="H26" r:id="rId24" xr:uid="{5433A4AE-4217-4EE7-930C-A0E613EE6AA3}"/>
+    <hyperlink ref="H24" r:id="rId25" xr:uid="{ED7DC865-0754-4677-BBE5-BF4AF851177F}"/>
+    <hyperlink ref="H27" r:id="rId26" xr:uid="{84A0CCC1-A592-4931-A941-E5326C8FC464}"/>
     <hyperlink ref="H15" r:id="rId27" xr:uid="{E15EEAD3-0BA4-4EAA-B8F8-731BE217E79B}"/>
-    <hyperlink ref="H49" r:id="rId28" xr:uid="{E27B3782-52AC-4DD1-9C40-C9CAE2CD205F}"/>
-    <hyperlink ref="H50" r:id="rId29" xr:uid="{FA68116D-962D-438B-964C-3508A341D914}"/>
-    <hyperlink ref="H51" r:id="rId30" xr:uid="{04802529-4914-4832-9CA2-2D2BD0F76FD6}"/>
-    <hyperlink ref="H52" r:id="rId31" xr:uid="{D97DA7B3-DB8B-4A29-922C-1947EA3D1DA0}"/>
-    <hyperlink ref="H39" r:id="rId32" xr:uid="{578C99D7-4447-40EF-8C65-759B18DC19FC}"/>
-    <hyperlink ref="H53" r:id="rId33" xr:uid="{68C87FBD-315D-4D2B-BA53-B60E11432DC6}"/>
-    <hyperlink ref="H40" r:id="rId34" xr:uid="{F2D2CBB0-73A5-4D87-8FF0-E76A17D41BDD}"/>
-    <hyperlink ref="H56" r:id="rId35" xr:uid="{DE493F4D-E7F5-4C91-B313-97A209FB5F99}"/>
-    <hyperlink ref="H58" r:id="rId36" xr:uid="{14FB9BAA-D1EA-4648-B385-13350A105182}"/>
-    <hyperlink ref="H59" r:id="rId37" xr:uid="{84DC7C70-C2FB-4487-B827-638F3E52FD58}"/>
-    <hyperlink ref="H60" r:id="rId38" xr:uid="{6B74AA20-237E-4762-BD61-F6A9DD0FFC4B}"/>
-    <hyperlink ref="H63" r:id="rId39" xr:uid="{41943B38-D351-40C0-AA17-CCC4C8FFADEF}"/>
-    <hyperlink ref="H21" r:id="rId40" xr:uid="{1A2B3988-DAA9-482D-8194-6C5137A2496E}"/>
+    <hyperlink ref="H48" r:id="rId28" xr:uid="{E27B3782-52AC-4DD1-9C40-C9CAE2CD205F}"/>
+    <hyperlink ref="H49" r:id="rId29" xr:uid="{FA68116D-962D-438B-964C-3508A341D914}"/>
+    <hyperlink ref="H50" r:id="rId30" xr:uid="{04802529-4914-4832-9CA2-2D2BD0F76FD6}"/>
+    <hyperlink ref="H51" r:id="rId31" xr:uid="{D97DA7B3-DB8B-4A29-922C-1947EA3D1DA0}"/>
+    <hyperlink ref="H38" r:id="rId32" xr:uid="{578C99D7-4447-40EF-8C65-759B18DC19FC}"/>
+    <hyperlink ref="H52" r:id="rId33" xr:uid="{68C87FBD-315D-4D2B-BA53-B60E11432DC6}"/>
+    <hyperlink ref="H39" r:id="rId34" xr:uid="{F2D2CBB0-73A5-4D87-8FF0-E76A17D41BDD}"/>
+    <hyperlink ref="H55" r:id="rId35" xr:uid="{DE493F4D-E7F5-4C91-B313-97A209FB5F99}"/>
+    <hyperlink ref="H57" r:id="rId36" xr:uid="{14FB9BAA-D1EA-4648-B385-13350A105182}"/>
+    <hyperlink ref="H58" r:id="rId37" xr:uid="{84DC7C70-C2FB-4487-B827-638F3E52FD58}"/>
+    <hyperlink ref="H59" r:id="rId38" xr:uid="{6B74AA20-237E-4762-BD61-F6A9DD0FFC4B}"/>
+    <hyperlink ref="H62" r:id="rId39" xr:uid="{41943B38-D351-40C0-AA17-CCC4C8FFADEF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="41" fitToHeight="0" orientation="portrait" r:id="rId41"/>
+  <pageSetup paperSize="9" scale="41" fitToHeight="0" orientation="portrait" r:id="rId40"/>
 </worksheet>
 </file>